--- a/RBNY_yearly_stats/main_stats/all_2024_stats.xlsx
+++ b/RBNY_yearly_stats/main_stats/all_2024_stats.xlsx
@@ -872,7 +872,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-02-25</t>
@@ -902,7 +902,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>MLS</t>
@@ -913,7 +913,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>Regular Season</t>
@@ -933,7 +933,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>Nashville SC</t>
@@ -944,7 +944,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>Emil Forsberg</t>
@@ -961,7 +961,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>Match Report</t>
@@ -972,7 +972,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-03-02</t>
@@ -1008,7 +1008,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>Houston Dynamo</t>
@@ -1019,7 +1019,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-03-09</t>
@@ -1036,7 +1036,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>FC Dallas</t>
@@ -1053,7 +1053,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-03-16</t>
@@ -1067,7 +1067,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>Columbus Crew</t>
@@ -1078,7 +1078,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-03-23</t>
@@ -1092,7 +1092,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>Inter Miami</t>
@@ -1103,7 +1103,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>Sean Nealis</t>
@@ -1117,7 +1117,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-03-30</t>
@@ -1128,7 +1128,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>Orlando City</t>
@@ -1139,7 +1139,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-04-06</t>
@@ -1150,7 +1150,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>FC Cincinnati</t>
@@ -1164,7 +1164,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-04-13</t>
@@ -1175,7 +1175,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>Chicago Fire</t>
@@ -1186,7 +1186,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-04-20</t>
@@ -1216,7 +1216,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>LAFC</t>
@@ -1227,7 +1227,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-04-27</t>
@@ -1238,7 +1238,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>Vancouver W'caps</t>
@@ -1249,7 +1249,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-05-04</t>
@@ -1260,7 +1260,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-05-11</t>
@@ -1271,7 +1271,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>NE Revolution</t>
@@ -1285,7 +1285,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-05-15</t>
@@ -1299,7 +1299,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>D.C. United</t>
@@ -1313,7 +1313,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-05-18</t>
@@ -1324,7 +1324,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>NYCFC</t>
@@ -1335,7 +1335,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-05-29</t>
@@ -1346,7 +1346,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>Charlotte</t>
@@ -1363,7 +1363,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-06-01</t>
@@ -1377,7 +1377,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-06-08</t>
@@ -1388,7 +1388,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-06-15</t>
@@ -1402,7 +1402,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-06-19</t>
@@ -1413,7 +1413,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>CF Montréal</t>
@@ -1424,7 +1424,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-06-22</t>
@@ -1435,7 +1435,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>Toronto FC</t>
@@ -1446,7 +1446,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-06-29</t>
@@ -1460,7 +1460,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-07-06</t>
@@ -1471,7 +1471,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>Philadelphia Union</t>
@@ -1482,7 +1482,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>Carlos Coronel</t>
@@ -1493,7 +1493,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-07-13</t>
@@ -1523,7 +1523,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>Colorado Rapids</t>
@@ -1537,7 +1537,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-07-17</t>
@@ -1548,7 +1548,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-07-20</t>
@@ -1562,7 +1562,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-08-24</t>
@@ -1576,7 +1576,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-08-31</t>
@@ -1593,7 +1593,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-09-07</t>
@@ -1604,7 +1604,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>Sporting KC</t>
@@ -1618,7 +1618,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-09-14</t>
@@ -1629,7 +1629,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>Peter Stroud</t>
@@ -1643,7 +1643,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-09-21</t>
@@ -1654,7 +1654,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>Atlanta Utd</t>
@@ -1665,7 +1665,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>Daniel Edelman</t>
@@ -1676,7 +1676,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-09-28</t>
@@ -1690,7 +1690,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-10-02</t>
@@ -1704,7 +1704,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-10-05</t>
@@ -1718,7 +1718,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-10-19</t>
@@ -1735,7 +1735,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-10-29</t>
@@ -1749,7 +1749,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>Round One</t>
@@ -1763,7 +1763,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-11-03</t>
@@ -1779,33 +1779,17 @@
         <color indexed="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t>2 </t>
+      <t>2 (5)</t>
     </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t>(5)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>(4)</t>
+      <t>2 (4)</t>
     </r>
   </si>
   <si>
@@ -1813,7 +1797,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-11-23</t>
@@ -1827,7 +1811,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>Conference Semifinals</t>
@@ -1841,7 +1825,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>2024-11-30</t>
@@ -1852,7 +1836,7 @@
       <rPr>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="19"/>
+        <color indexed="17"/>
         <rFont val="Verdana"/>
       </rPr>
       <t>Conference Finals</t>
@@ -2139,7 +2123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -2185,21 +2169,14 @@
       <name val="Verdana"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="9"/>
-      <color indexed="14"/>
-      <name val="Verdana"/>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <u val="single"/>
       <sz val="9"/>
-      <color indexed="16"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="9"/>
-      <color indexed="19"/>
+      <color indexed="17"/>
       <name val="Verdana"/>
     </font>
     <font>
@@ -2209,8 +2186,15 @@
       <name val="Verdana"/>
     </font>
     <font>
+      <b val="1"/>
       <sz val="9"/>
-      <color indexed="8"/>
+      <color indexed="17"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="9"/>
+      <color indexed="18"/>
       <name val="Verdana"/>
     </font>
     <font>
@@ -2220,25 +2204,13 @@
       <name val="Verdana"/>
     </font>
     <font>
-      <b val="1"/>
       <sz val="9"/>
       <color indexed="20"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <b val="1"/>
       <sz val="9"/>
       <color indexed="21"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="22"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="23"/>
       <name val="Verdana"/>
     </font>
   </fonts>
@@ -2268,7 +2240,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2420,51 +2392,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="17"/>
-      </left>
-      <right style="thin">
-        <color indexed="18"/>
-      </right>
-      <top style="thin">
-        <color indexed="17"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="17"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="18"/>
-      </left>
-      <right style="thin">
-        <color indexed="17"/>
-      </right>
-      <top style="thin">
-        <color indexed="17"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="17"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="17"/>
-      </left>
-      <right style="thin">
-        <color indexed="17"/>
-      </right>
-      <top style="thin">
-        <color indexed="17"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="17"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="10"/>
       </left>
       <right/>
@@ -2556,7 +2483,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2617,55 +2544,52 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2686,29 +2610,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -2741,8 +2659,6 @@
       <rgbColor rgb="ff990000"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ff3344dd"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ff008000"/>
       <rgbColor rgb="ffff0000"/>
@@ -7202,11 +7118,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:T40"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B1" xSplit="1" ySplit="0" activePane="topRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -7218,2327 +7132,2327 @@
       <c r="A1" t="s" s="20">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="22"/>
     </row>
     <row r="2" ht="19.35" customHeight="1">
-      <c r="A2" t="s" s="21">
+      <c r="A2" t="s" s="23">
         <v>88</v>
       </c>
-      <c r="B2" t="s" s="22">
+      <c r="B2" t="s" s="24">
         <v>89</v>
       </c>
-      <c r="C2" t="s" s="23">
+      <c r="C2" t="s" s="25">
         <v>90</v>
       </c>
-      <c r="D2" t="s" s="23">
+      <c r="D2" t="s" s="25">
         <v>91</v>
       </c>
-      <c r="E2" t="s" s="23">
+      <c r="E2" t="s" s="25">
         <v>92</v>
       </c>
-      <c r="F2" t="s" s="23">
+      <c r="F2" t="s" s="25">
         <v>93</v>
       </c>
-      <c r="G2" t="s" s="23">
+      <c r="G2" t="s" s="25">
         <v>94</v>
       </c>
-      <c r="H2" t="s" s="23">
+      <c r="H2" t="s" s="25">
         <v>95</v>
       </c>
-      <c r="I2" t="s" s="23">
+      <c r="I2" t="s" s="25">
         <v>96</v>
       </c>
-      <c r="J2" t="s" s="23">
+      <c r="J2" t="s" s="25">
         <v>97</v>
       </c>
-      <c r="K2" t="s" s="23">
+      <c r="K2" t="s" s="25">
         <v>22</v>
       </c>
-      <c r="L2" t="s" s="23">
+      <c r="L2" t="s" s="25">
         <v>98</v>
       </c>
-      <c r="M2" t="s" s="23">
+      <c r="M2" t="s" s="25">
         <v>99</v>
       </c>
-      <c r="N2" t="s" s="23">
+      <c r="N2" t="s" s="25">
         <v>100</v>
       </c>
-      <c r="O2" t="s" s="23">
+      <c r="O2" t="s" s="25">
         <v>101</v>
       </c>
-      <c r="P2" t="s" s="23">
+      <c r="P2" t="s" s="25">
         <v>102</v>
       </c>
-      <c r="Q2" t="s" s="23">
+      <c r="Q2" t="s" s="25">
         <v>103</v>
       </c>
-      <c r="R2" t="s" s="23">
+      <c r="R2" t="s" s="25">
         <v>104</v>
       </c>
-      <c r="S2" t="s" s="23">
+      <c r="S2" t="s" s="25">
         <v>105</v>
       </c>
-      <c r="T2" t="s" s="23">
+      <c r="T2" t="s" s="25">
         <v>106</v>
       </c>
     </row>
     <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" t="s" s="24">
+      <c r="A3" t="s" s="11">
         <v>107</v>
       </c>
-      <c r="B3" t="s" s="25">
+      <c r="B3" t="s" s="26">
         <v>108</v>
       </c>
-      <c r="C3" t="s" s="26">
+      <c r="C3" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D3" t="s" s="26">
+      <c r="D3" t="s" s="16">
         <v>110</v>
       </c>
-      <c r="E3" t="s" s="27">
+      <c r="E3" t="s" s="18">
         <v>111</v>
       </c>
-      <c r="F3" t="s" s="27">
+      <c r="F3" t="s" s="18">
         <v>112</v>
       </c>
-      <c r="G3" t="s" s="28">
+      <c r="G3" t="s" s="27">
         <v>113</v>
       </c>
-      <c r="H3" s="29">
-        <v>0</v>
-      </c>
-      <c r="I3" s="29">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s" s="26">
+      <c r="H3" s="14">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s" s="16">
         <v>114</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="14">
         <v>1.4</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="14">
         <v>0.1</v>
       </c>
-      <c r="M3" s="29">
+      <c r="M3" s="14">
         <v>55</v>
       </c>
-      <c r="N3" s="30">
+      <c r="N3" s="15">
         <v>30109</v>
       </c>
-      <c r="O3" t="s" s="26">
+      <c r="O3" t="s" s="16">
         <v>115</v>
       </c>
-      <c r="P3" t="s" s="27">
+      <c r="P3" t="s" s="18">
         <v>116</v>
       </c>
-      <c r="Q3" t="s" s="27">
+      <c r="Q3" t="s" s="18">
         <v>117</v>
       </c>
-      <c r="R3" s="31"/>
-      <c r="S3" t="s" s="26">
+      <c r="R3" s="17"/>
+      <c r="S3" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T3" s="31"/>
+      <c r="T3" s="17"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="24">
+      <c r="A4" t="s" s="11">
         <v>119</v>
       </c>
-      <c r="B4" t="s" s="25">
+      <c r="B4" t="s" s="26">
         <v>120</v>
       </c>
-      <c r="C4" t="s" s="26">
+      <c r="C4" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D4" t="s" s="26">
+      <c r="D4" t="s" s="16">
         <v>110</v>
       </c>
-      <c r="E4" t="s" s="27">
+      <c r="E4" t="s" s="18">
         <v>121</v>
       </c>
-      <c r="F4" t="s" s="27">
+      <c r="F4" t="s" s="18">
         <v>112</v>
       </c>
-      <c r="G4" t="s" s="32">
+      <c r="G4" t="s" s="28">
         <v>122</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="14">
         <v>2</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="14">
         <v>1</v>
       </c>
-      <c r="J4" t="s" s="26">
+      <c r="J4" t="s" s="16">
         <v>123</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="14">
         <v>1</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="14">
         <v>1.2</v>
       </c>
-      <c r="M4" s="29">
+      <c r="M4" s="14">
         <v>43</v>
       </c>
-      <c r="N4" s="30">
+      <c r="N4" s="15">
         <v>16516</v>
       </c>
-      <c r="O4" t="s" s="26">
+      <c r="O4" t="s" s="16">
         <v>115</v>
       </c>
-      <c r="P4" t="s" s="27">
+      <c r="P4" t="s" s="18">
         <v>116</v>
       </c>
-      <c r="Q4" t="s" s="27">
+      <c r="Q4" t="s" s="18">
         <v>117</v>
       </c>
-      <c r="R4" s="31"/>
-      <c r="S4" t="s" s="26">
+      <c r="R4" s="17"/>
+      <c r="S4" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T4" s="31"/>
+      <c r="T4" s="17"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="24">
+      <c r="A5" t="s" s="11">
         <v>124</v>
       </c>
-      <c r="B5" t="s" s="33">
+      <c r="B5" t="s" s="29">
         <v>125</v>
       </c>
-      <c r="C5" t="s" s="26">
+      <c r="C5" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D5" t="s" s="26">
+      <c r="D5" t="s" s="16">
         <v>110</v>
       </c>
-      <c r="E5" t="s" s="27">
+      <c r="E5" t="s" s="18">
         <v>121</v>
       </c>
-      <c r="F5" t="s" s="27">
+      <c r="F5" t="s" s="18">
         <v>126</v>
       </c>
-      <c r="G5" t="s" s="32">
+      <c r="G5" t="s" s="28">
         <v>122</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="14">
         <v>2</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="14">
         <v>1</v>
       </c>
-      <c r="J5" t="s" s="26">
+      <c r="J5" t="s" s="16">
         <v>127</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="14">
         <v>2</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="14">
         <v>0.7</v>
       </c>
-      <c r="M5" s="29">
+      <c r="M5" s="14">
         <v>41</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="15">
         <v>19284</v>
       </c>
-      <c r="O5" t="s" s="26">
+      <c r="O5" t="s" s="16">
         <v>115</v>
       </c>
-      <c r="P5" t="s" s="27">
+      <c r="P5" t="s" s="18">
         <v>128</v>
       </c>
-      <c r="Q5" t="s" s="27">
+      <c r="Q5" t="s" s="18">
         <v>129</v>
       </c>
-      <c r="R5" s="31"/>
-      <c r="S5" t="s" s="26">
+      <c r="R5" s="17"/>
+      <c r="S5" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T5" s="31"/>
+      <c r="T5" s="17"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="24">
+      <c r="A6" t="s" s="11">
         <v>130</v>
       </c>
-      <c r="B6" t="s" s="33">
+      <c r="B6" t="s" s="29">
         <v>125</v>
       </c>
-      <c r="C6" t="s" s="26">
+      <c r="C6" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D6" t="s" s="26">
+      <c r="D6" t="s" s="16">
         <v>110</v>
       </c>
-      <c r="E6" t="s" s="27">
+      <c r="E6" t="s" s="18">
         <v>121</v>
       </c>
-      <c r="F6" t="s" s="27">
+      <c r="F6" t="s" s="18">
         <v>112</v>
       </c>
-      <c r="G6" t="s" s="34">
+      <c r="G6" t="s" s="30">
         <v>131</v>
       </c>
-      <c r="H6" s="29">
-        <v>0</v>
-      </c>
-      <c r="I6" s="29">
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
         <v>3</v>
       </c>
-      <c r="J6" t="s" s="26">
+      <c r="J6" t="s" s="16">
         <v>132</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="14">
         <v>0.3</v>
       </c>
-      <c r="L6" s="29">
+      <c r="L6" s="14">
         <v>2</v>
       </c>
-      <c r="M6" s="29">
+      <c r="M6" s="14">
         <v>41</v>
       </c>
-      <c r="N6" s="30">
+      <c r="N6" s="15">
         <v>20314</v>
       </c>
-      <c r="O6" t="s" s="26">
+      <c r="O6" t="s" s="16">
         <v>115</v>
       </c>
-      <c r="P6" t="s" s="27">
+      <c r="P6" t="s" s="18">
         <v>116</v>
       </c>
-      <c r="Q6" t="s" s="27">
+      <c r="Q6" t="s" s="18">
         <v>129</v>
       </c>
-      <c r="R6" s="31"/>
-      <c r="S6" t="s" s="26">
+      <c r="R6" s="17"/>
+      <c r="S6" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T6" s="31"/>
+      <c r="T6" s="17"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="24">
+      <c r="A7" t="s" s="11">
         <v>133</v>
       </c>
-      <c r="B7" t="s" s="33">
+      <c r="B7" t="s" s="29">
         <v>134</v>
       </c>
-      <c r="C7" t="s" s="26">
+      <c r="C7" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D7" t="s" s="26">
+      <c r="D7" t="s" s="16">
         <v>110</v>
       </c>
-      <c r="E7" t="s" s="27">
+      <c r="E7" t="s" s="18">
         <v>121</v>
       </c>
-      <c r="F7" t="s" s="27">
+      <c r="F7" t="s" s="18">
         <v>126</v>
       </c>
-      <c r="G7" t="s" s="32">
+      <c r="G7" t="s" s="28">
         <v>122</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="14">
         <v>4</v>
       </c>
-      <c r="I7" s="29">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s" s="26">
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s" s="16">
         <v>135</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="14">
         <v>1.2</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="14">
         <v>0.3</v>
       </c>
-      <c r="M7" s="29">
+      <c r="M7" s="14">
         <v>31</v>
       </c>
-      <c r="N7" s="30">
+      <c r="N7" s="15">
         <v>25219</v>
       </c>
-      <c r="O7" t="s" s="26">
+      <c r="O7" t="s" s="16">
         <v>136</v>
       </c>
-      <c r="P7" t="s" s="27">
+      <c r="P7" t="s" s="18">
         <v>116</v>
       </c>
-      <c r="Q7" t="s" s="27">
+      <c r="Q7" t="s" s="18">
         <v>137</v>
       </c>
-      <c r="R7" s="31"/>
-      <c r="S7" t="s" s="26">
+      <c r="R7" s="17"/>
+      <c r="S7" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T7" s="31"/>
+      <c r="T7" s="17"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="24">
+      <c r="A8" t="s" s="11">
         <v>138</v>
       </c>
-      <c r="B8" t="s" s="33">
+      <c r="B8" t="s" s="29">
         <v>125</v>
       </c>
-      <c r="C8" t="s" s="26">
+      <c r="C8" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D8" t="s" s="26">
+      <c r="D8" t="s" s="16">
         <v>110</v>
       </c>
-      <c r="E8" t="s" s="27">
+      <c r="E8" t="s" s="18">
         <v>121</v>
       </c>
-      <c r="F8" t="s" s="27">
+      <c r="F8" t="s" s="18">
         <v>112</v>
       </c>
-      <c r="G8" t="s" s="28">
+      <c r="G8" t="s" s="27">
         <v>113</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="14">
         <v>1</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="14">
         <v>1</v>
       </c>
-      <c r="J8" t="s" s="26">
+      <c r="J8" t="s" s="16">
         <v>139</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="14">
         <v>1.8</v>
       </c>
-      <c r="L8" s="29">
+      <c r="L8" s="14">
         <v>0.7</v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="14">
         <v>35</v>
       </c>
-      <c r="N8" s="30">
+      <c r="N8" s="15">
         <v>23859</v>
       </c>
-      <c r="O8" t="s" s="26">
+      <c r="O8" t="s" s="16">
         <v>136</v>
       </c>
-      <c r="P8" t="s" s="27">
+      <c r="P8" t="s" s="18">
         <v>116</v>
       </c>
-      <c r="Q8" t="s" s="27">
+      <c r="Q8" t="s" s="18">
         <v>116</v>
       </c>
-      <c r="R8" s="31"/>
-      <c r="S8" t="s" s="26">
+      <c r="R8" s="17"/>
+      <c r="S8" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T8" s="31"/>
+      <c r="T8" s="17"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="24">
+      <c r="A9" t="s" s="11">
         <v>140</v>
       </c>
-      <c r="B9" t="s" s="33">
+      <c r="B9" t="s" s="29">
         <v>125</v>
       </c>
-      <c r="C9" t="s" s="26">
+      <c r="C9" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D9" t="s" s="26">
+      <c r="D9" t="s" s="16">
         <v>110</v>
       </c>
-      <c r="E9" t="s" s="27">
+      <c r="E9" t="s" s="18">
         <v>121</v>
       </c>
-      <c r="F9" t="s" s="27">
+      <c r="F9" t="s" s="18">
         <v>112</v>
       </c>
-      <c r="G9" t="s" s="32">
+      <c r="G9" t="s" s="28">
         <v>122</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="14">
         <v>2</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="14">
         <v>1</v>
       </c>
-      <c r="J9" t="s" s="26">
+      <c r="J9" t="s" s="16">
         <v>141</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="14">
         <v>1.2</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L9" s="14">
         <v>0.7</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="14">
         <v>45</v>
       </c>
-      <c r="N9" s="30">
+      <c r="N9" s="15">
         <v>25513</v>
       </c>
-      <c r="O9" t="s" s="26">
+      <c r="O9" t="s" s="16">
         <v>115</v>
       </c>
-      <c r="P9" t="s" s="27">
+      <c r="P9" t="s" s="18">
         <v>116</v>
       </c>
-      <c r="Q9" t="s" s="27">
+      <c r="Q9" t="s" s="18">
         <v>142</v>
       </c>
-      <c r="R9" s="31"/>
-      <c r="S9" t="s" s="26">
+      <c r="R9" s="17"/>
+      <c r="S9" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T9" s="31"/>
+      <c r="T9" s="17"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="24">
+      <c r="A10" t="s" s="11">
         <v>143</v>
       </c>
-      <c r="B10" t="s" s="33">
+      <c r="B10" t="s" s="29">
         <v>125</v>
       </c>
-      <c r="C10" t="s" s="26">
+      <c r="C10" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D10" t="s" s="26">
+      <c r="D10" t="s" s="16">
         <v>110</v>
       </c>
-      <c r="E10" t="s" s="27">
+      <c r="E10" t="s" s="18">
         <v>121</v>
       </c>
-      <c r="F10" t="s" s="27">
+      <c r="F10" t="s" s="18">
         <v>126</v>
       </c>
-      <c r="G10" t="s" s="28">
+      <c r="G10" t="s" s="27">
         <v>113</v>
       </c>
-      <c r="H10" s="29">
-        <v>0</v>
-      </c>
-      <c r="I10" s="29">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s" s="26">
+      <c r="H10" s="14">
+        <v>0</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s" s="16">
         <v>144</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="14">
         <v>1.4</v>
       </c>
-      <c r="L10" s="29">
+      <c r="L10" s="14">
         <v>0.6</v>
       </c>
-      <c r="M10" s="29">
+      <c r="M10" s="14">
         <v>34</v>
       </c>
-      <c r="N10" s="30">
+      <c r="N10" s="15">
         <v>17501</v>
       </c>
-      <c r="O10" t="s" s="26">
+      <c r="O10" t="s" s="16">
         <v>115</v>
       </c>
-      <c r="P10" t="s" s="27">
+      <c r="P10" t="s" s="18">
         <v>116</v>
       </c>
-      <c r="Q10" t="s" s="27">
+      <c r="Q10" t="s" s="18">
         <v>128</v>
       </c>
-      <c r="R10" s="31"/>
-      <c r="S10" t="s" s="26">
+      <c r="R10" s="17"/>
+      <c r="S10" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T10" s="31"/>
+      <c r="T10" s="17"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="24">
+      <c r="A11" t="s" s="11">
         <v>145</v>
       </c>
-      <c r="B11" t="s" s="25">
+      <c r="B11" t="s" s="26">
         <v>146</v>
       </c>
-      <c r="C11" t="s" s="26">
+      <c r="C11" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D11" t="s" s="26">
+      <c r="D11" t="s" s="16">
         <v>110</v>
       </c>
-      <c r="E11" t="s" s="27">
+      <c r="E11" t="s" s="18">
         <v>121</v>
       </c>
-      <c r="F11" t="s" s="27">
+      <c r="F11" t="s" s="18">
         <v>112</v>
       </c>
-      <c r="G11" t="s" s="28">
+      <c r="G11" t="s" s="27">
         <v>113</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="14">
         <v>2</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="14">
         <v>2</v>
       </c>
-      <c r="J11" t="s" s="26">
+      <c r="J11" t="s" s="16">
         <v>147</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="14">
         <v>1</v>
       </c>
-      <c r="L11" s="29">
+      <c r="L11" s="14">
         <v>1.5</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M11" s="14">
         <v>42</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="15">
         <v>22122</v>
       </c>
-      <c r="O11" t="s" s="26">
+      <c r="O11" t="s" s="16">
         <v>115</v>
       </c>
-      <c r="P11" t="s" s="27">
+      <c r="P11" t="s" s="18">
         <v>116</v>
       </c>
-      <c r="Q11" t="s" s="27">
+      <c r="Q11" t="s" s="18">
         <v>117</v>
       </c>
-      <c r="R11" s="31"/>
-      <c r="S11" t="s" s="26">
+      <c r="R11" s="17"/>
+      <c r="S11" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T11" s="31"/>
+      <c r="T11" s="17"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="24">
+      <c r="A12" t="s" s="11">
         <v>148</v>
       </c>
-      <c r="B12" t="s" s="33">
+      <c r="B12" t="s" s="29">
         <v>125</v>
       </c>
-      <c r="C12" t="s" s="26">
+      <c r="C12" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D12" t="s" s="26">
+      <c r="D12" t="s" s="16">
         <v>110</v>
       </c>
-      <c r="E12" t="s" s="27">
+      <c r="E12" t="s" s="18">
         <v>121</v>
       </c>
-      <c r="F12" t="s" s="27">
+      <c r="F12" t="s" s="18">
         <v>126</v>
       </c>
-      <c r="G12" t="s" s="28">
+      <c r="G12" t="s" s="27">
         <v>113</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="14">
         <v>1</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="14">
         <v>1</v>
       </c>
-      <c r="J12" t="s" s="26">
+      <c r="J12" t="s" s="16">
         <v>149</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="14">
         <v>1.2</v>
       </c>
-      <c r="L12" s="29">
+      <c r="L12" s="14">
         <v>1</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="14">
         <v>59</v>
       </c>
-      <c r="N12" s="30">
+      <c r="N12" s="15">
         <v>17525</v>
       </c>
-      <c r="O12" t="s" s="26">
+      <c r="O12" t="s" s="16">
         <v>115</v>
       </c>
-      <c r="P12" t="s" s="27">
+      <c r="P12" t="s" s="18">
         <v>116</v>
       </c>
-      <c r="Q12" t="s" s="27">
+      <c r="Q12" t="s" s="18">
         <v>129</v>
       </c>
-      <c r="R12" s="31"/>
-      <c r="S12" t="s" s="26">
+      <c r="R12" s="17"/>
+      <c r="S12" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T12" s="31"/>
+      <c r="T12" s="17"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="24">
+      <c r="A13" t="s" s="11">
         <v>150</v>
       </c>
-      <c r="B13" t="s" s="33">
+      <c r="B13" t="s" s="29">
         <v>125</v>
       </c>
-      <c r="C13" t="s" s="26">
+      <c r="C13" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D13" t="s" s="26">
+      <c r="D13" t="s" s="16">
         <v>110</v>
       </c>
-      <c r="E13" t="s" s="27">
+      <c r="E13" t="s" s="18">
         <v>121</v>
       </c>
-      <c r="F13" t="s" s="27">
+      <c r="F13" t="s" s="18">
         <v>112</v>
       </c>
-      <c r="G13" t="s" s="34">
+      <c r="G13" t="s" s="30">
         <v>131</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="14">
         <v>2</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="14">
         <v>6</v>
       </c>
-      <c r="J13" t="s" s="26">
+      <c r="J13" t="s" s="16">
         <v>135</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="14">
         <v>1.5</v>
       </c>
-      <c r="L13" s="29">
+      <c r="L13" s="14">
         <v>2.8</v>
       </c>
-      <c r="M13" s="29">
+      <c r="M13" s="14">
         <v>42</v>
       </c>
-      <c r="N13" s="30">
+      <c r="N13" s="15">
         <v>21488</v>
       </c>
-      <c r="O13" t="s" s="26">
+      <c r="O13" t="s" s="16">
         <v>115</v>
       </c>
-      <c r="P13" t="s" s="27">
+      <c r="P13" t="s" s="18">
         <v>116</v>
       </c>
-      <c r="Q13" t="s" s="27">
+      <c r="Q13" t="s" s="18">
         <v>117</v>
       </c>
-      <c r="R13" s="31"/>
-      <c r="S13" t="s" s="26">
+      <c r="R13" s="17"/>
+      <c r="S13" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T13" s="31"/>
+      <c r="T13" s="17"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="24">
+      <c r="A14" t="s" s="11">
         <v>151</v>
       </c>
-      <c r="B14" t="s" s="33">
+      <c r="B14" t="s" s="29">
         <v>125</v>
       </c>
-      <c r="C14" t="s" s="26">
+      <c r="C14" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D14" t="s" s="26">
+      <c r="D14" t="s" s="16">
         <v>110</v>
       </c>
-      <c r="E14" t="s" s="27">
+      <c r="E14" t="s" s="18">
         <v>121</v>
       </c>
-      <c r="F14" t="s" s="27">
+      <c r="F14" t="s" s="18">
         <v>126</v>
       </c>
-      <c r="G14" t="s" s="32">
+      <c r="G14" t="s" s="28">
         <v>122</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="14">
         <v>4</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="14">
         <v>2</v>
       </c>
-      <c r="J14" t="s" s="26">
+      <c r="J14" t="s" s="16">
         <v>152</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="14">
         <v>3.4</v>
       </c>
-      <c r="L14" s="29">
+      <c r="L14" s="14">
         <v>1.2</v>
       </c>
-      <c r="M14" s="29">
+      <c r="M14" s="14">
         <v>33</v>
       </c>
-      <c r="N14" s="30">
+      <c r="N14" s="15">
         <v>17525</v>
       </c>
-      <c r="O14" t="s" s="26">
+      <c r="O14" t="s" s="16">
         <v>115</v>
       </c>
-      <c r="P14" t="s" s="27">
+      <c r="P14" t="s" s="18">
         <v>116</v>
       </c>
-      <c r="Q14" t="s" s="27">
+      <c r="Q14" t="s" s="18">
         <v>128</v>
       </c>
-      <c r="R14" t="s" s="27">
+      <c r="R14" t="s" s="18">
         <v>153</v>
       </c>
-      <c r="S14" t="s" s="26">
+      <c r="S14" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T14" s="31"/>
+      <c r="T14" s="17"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="24">
+      <c r="A15" t="s" s="11">
         <v>154</v>
       </c>
-      <c r="B15" t="s" s="33">
+      <c r="B15" t="s" s="29">
         <v>125</v>
       </c>
-      <c r="C15" t="s" s="26">
+      <c r="C15" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D15" t="s" s="26">
+      <c r="D15" t="s" s="16">
         <v>110</v>
       </c>
-      <c r="E15" t="s" s="27">
+      <c r="E15" t="s" s="18">
         <v>155</v>
       </c>
-      <c r="F15" t="s" s="27">
+      <c r="F15" t="s" s="18">
         <v>112</v>
       </c>
-      <c r="G15" t="s" s="32">
+      <c r="G15" t="s" s="28">
         <v>122</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="14">
         <v>4</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="14">
         <v>1</v>
       </c>
-      <c r="J15" t="s" s="26">
+      <c r="J15" t="s" s="16">
         <v>156</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="14">
         <v>2.3</v>
       </c>
-      <c r="L15" s="29">
+      <c r="L15" s="14">
         <v>2.8</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="14">
         <v>41</v>
       </c>
-      <c r="N15" s="30">
+      <c r="N15" s="15">
         <v>17417</v>
       </c>
-      <c r="O15" t="s" s="26">
+      <c r="O15" t="s" s="16">
         <v>115</v>
       </c>
-      <c r="P15" t="s" s="27">
+      <c r="P15" t="s" s="18">
         <v>128</v>
       </c>
-      <c r="Q15" t="s" s="27">
+      <c r="Q15" t="s" s="18">
         <v>157</v>
       </c>
-      <c r="R15" s="31"/>
-      <c r="S15" t="s" s="26">
+      <c r="R15" s="17"/>
+      <c r="S15" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T15" s="31"/>
+      <c r="T15" s="17"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="24">
+      <c r="A16" t="s" s="11">
         <v>158</v>
       </c>
-      <c r="B16" t="s" s="33">
+      <c r="B16" t="s" s="29">
         <v>125</v>
       </c>
-      <c r="C16" t="s" s="26">
+      <c r="C16" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D16" t="s" s="26">
+      <c r="D16" t="s" s="16">
         <v>110</v>
       </c>
-      <c r="E16" t="s" s="27">
+      <c r="E16" t="s" s="18">
         <v>121</v>
       </c>
-      <c r="F16" t="s" s="27">
+      <c r="F16" t="s" s="18">
         <v>112</v>
       </c>
-      <c r="G16" t="s" s="34">
+      <c r="G16" t="s" s="30">
         <v>131</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="14">
         <v>1</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="14">
         <v>2</v>
       </c>
-      <c r="J16" t="s" s="26">
+      <c r="J16" t="s" s="16">
         <v>159</v>
       </c>
-      <c r="K16" s="29">
+      <c r="K16" s="14">
         <v>1</v>
       </c>
-      <c r="L16" s="29">
+      <c r="L16" s="14">
         <v>1.2</v>
       </c>
-      <c r="M16" s="29">
+      <c r="M16" s="14">
         <v>41</v>
       </c>
-      <c r="N16" s="30">
+      <c r="N16" s="15">
         <v>30731</v>
       </c>
-      <c r="O16" t="s" s="26">
+      <c r="O16" t="s" s="16">
         <v>136</v>
       </c>
-      <c r="P16" t="s" s="27">
+      <c r="P16" t="s" s="18">
         <v>116</v>
       </c>
-      <c r="Q16" t="s" s="27">
+      <c r="Q16" t="s" s="18">
         <v>128</v>
       </c>
-      <c r="R16" s="31"/>
-      <c r="S16" t="s" s="26">
+      <c r="R16" s="17"/>
+      <c r="S16" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T16" s="31"/>
+      <c r="T16" s="17"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="24">
+      <c r="A17" t="s" s="11">
         <v>160</v>
       </c>
-      <c r="B17" t="s" s="33">
+      <c r="B17" t="s" s="29">
         <v>125</v>
       </c>
-      <c r="C17" t="s" s="26">
+      <c r="C17" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D17" t="s" s="26">
+      <c r="D17" t="s" s="16">
         <v>110</v>
       </c>
-      <c r="E17" t="s" s="27">
+      <c r="E17" t="s" s="18">
         <v>155</v>
       </c>
-      <c r="F17" t="s" s="27">
+      <c r="F17" t="s" s="18">
         <v>126</v>
       </c>
-      <c r="G17" t="s" s="32">
+      <c r="G17" t="s" s="28">
         <v>122</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="14">
         <v>3</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="14">
         <v>1</v>
       </c>
-      <c r="J17" t="s" s="26">
+      <c r="J17" t="s" s="16">
         <v>161</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="14">
         <v>1.4</v>
       </c>
-      <c r="L17" s="29">
+      <c r="L17" s="14">
         <v>0.6</v>
       </c>
-      <c r="M17" s="29">
+      <c r="M17" s="14">
         <v>49</v>
       </c>
-      <c r="N17" s="30">
+      <c r="N17" s="15">
         <v>16516</v>
       </c>
-      <c r="O17" t="s" s="26">
+      <c r="O17" t="s" s="16">
         <v>115</v>
       </c>
-      <c r="P17" t="s" s="27">
+      <c r="P17" t="s" s="18">
         <v>162</v>
       </c>
-      <c r="Q17" t="s" s="27">
+      <c r="Q17" t="s" s="18">
         <v>117</v>
       </c>
-      <c r="R17" t="s" s="27">
+      <c r="R17" t="s" s="18">
         <v>163</v>
       </c>
-      <c r="S17" t="s" s="26">
+      <c r="S17" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T17" s="31"/>
+      <c r="T17" s="17"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="24">
+      <c r="A18" t="s" s="11">
         <v>164</v>
       </c>
-      <c r="B18" t="s" s="33">
+      <c r="B18" t="s" s="29">
         <v>125</v>
       </c>
-      <c r="C18" t="s" s="26">
+      <c r="C18" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D18" t="s" s="26">
+      <c r="D18" t="s" s="16">
         <v>110</v>
       </c>
-      <c r="E18" t="s" s="27">
+      <c r="E18" t="s" s="18">
         <v>121</v>
       </c>
-      <c r="F18" t="s" s="27">
+      <c r="F18" t="s" s="18">
         <v>126</v>
       </c>
-      <c r="G18" t="s" s="32">
+      <c r="G18" t="s" s="28">
         <v>122</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="14">
         <v>1</v>
       </c>
-      <c r="I18" s="29">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s" s="26">
+      <c r="I18" s="14">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s" s="16">
         <v>139</v>
       </c>
-      <c r="K18" s="29">
+      <c r="K18" s="14">
         <v>0.8</v>
       </c>
-      <c r="L18" s="29">
+      <c r="L18" s="14">
         <v>0.4</v>
       </c>
-      <c r="M18" s="29">
+      <c r="M18" s="14">
         <v>36</v>
       </c>
-      <c r="N18" s="30">
+      <c r="N18" s="15">
         <v>18039</v>
       </c>
-      <c r="O18" t="s" s="26">
+      <c r="O18" t="s" s="16">
         <v>115</v>
       </c>
-      <c r="P18" t="s" s="27">
+      <c r="P18" t="s" s="18">
         <v>116</v>
       </c>
-      <c r="Q18" t="s" s="27">
+      <c r="Q18" t="s" s="18">
         <v>165</v>
       </c>
-      <c r="R18" s="31"/>
-      <c r="S18" t="s" s="26">
+      <c r="R18" s="17"/>
+      <c r="S18" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T18" s="31"/>
+      <c r="T18" s="17"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="24">
+      <c r="A19" t="s" s="11">
         <v>166</v>
       </c>
-      <c r="B19" t="s" s="33">
+      <c r="B19" t="s" s="29">
         <v>125</v>
       </c>
-      <c r="C19" t="s" s="26">
+      <c r="C19" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D19" t="s" s="26">
+      <c r="D19" t="s" s="16">
         <v>110</v>
       </c>
-      <c r="E19" t="s" s="27">
+      <c r="E19" t="s" s="18">
         <v>121</v>
       </c>
-      <c r="F19" t="s" s="27">
+      <c r="F19" t="s" s="18">
         <v>112</v>
       </c>
-      <c r="G19" t="s" s="34">
+      <c r="G19" t="s" s="30">
         <v>131</v>
       </c>
-      <c r="H19" s="29">
-        <v>0</v>
-      </c>
-      <c r="I19" s="29">
+      <c r="H19" s="14">
+        <v>0</v>
+      </c>
+      <c r="I19" s="14">
         <v>1</v>
       </c>
-      <c r="J19" t="s" s="26">
+      <c r="J19" t="s" s="16">
         <v>152</v>
       </c>
-      <c r="K19" s="29">
+      <c r="K19" s="14">
         <v>1.1</v>
       </c>
-      <c r="L19" s="29">
+      <c r="L19" s="14">
         <v>0.9</v>
       </c>
-      <c r="M19" s="29">
+      <c r="M19" s="14">
         <v>41</v>
       </c>
-      <c r="N19" s="30">
+      <c r="N19" s="15">
         <v>29288</v>
       </c>
-      <c r="O19" t="s" s="26">
+      <c r="O19" t="s" s="16">
         <v>136</v>
       </c>
-      <c r="P19" t="s" s="27">
+      <c r="P19" t="s" s="18">
         <v>116</v>
       </c>
-      <c r="Q19" t="s" s="27">
+      <c r="Q19" t="s" s="18">
         <v>128</v>
       </c>
-      <c r="R19" s="31"/>
-      <c r="S19" t="s" s="26">
+      <c r="R19" s="17"/>
+      <c r="S19" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T19" s="31"/>
+      <c r="T19" s="17"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="24">
+      <c r="A20" t="s" s="11">
         <v>167</v>
       </c>
-      <c r="B20" t="s" s="33">
+      <c r="B20" t="s" s="29">
         <v>125</v>
       </c>
-      <c r="C20" t="s" s="26">
+      <c r="C20" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D20" t="s" s="26">
+      <c r="D20" t="s" s="16">
         <v>110</v>
       </c>
-      <c r="E20" t="s" s="27">
+      <c r="E20" t="s" s="18">
         <v>121</v>
       </c>
-      <c r="F20" t="s" s="27">
+      <c r="F20" t="s" s="18">
         <v>126</v>
       </c>
-      <c r="G20" t="s" s="28">
+      <c r="G20" t="s" s="27">
         <v>113</v>
       </c>
-      <c r="H20" s="29">
-        <v>0</v>
-      </c>
-      <c r="I20" s="29">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s" s="26">
+      <c r="H20" s="14">
+        <v>0</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s" s="16">
         <v>114</v>
       </c>
-      <c r="K20" s="29">
+      <c r="K20" s="14">
         <v>1.9</v>
       </c>
-      <c r="L20" s="29">
+      <c r="L20" s="14">
         <v>0.3</v>
       </c>
-      <c r="M20" s="29">
+      <c r="M20" s="14">
         <v>49</v>
       </c>
-      <c r="N20" s="30">
+      <c r="N20" s="15">
         <v>18039</v>
       </c>
-      <c r="O20" t="s" s="26">
+      <c r="O20" t="s" s="16">
         <v>136</v>
       </c>
-      <c r="P20" t="s" s="27">
+      <c r="P20" t="s" s="18">
         <v>116</v>
       </c>
-      <c r="Q20" t="s" s="27">
+      <c r="Q20" t="s" s="18">
         <v>128</v>
       </c>
-      <c r="R20" t="s" s="27">
+      <c r="R20" t="s" s="18">
         <v>168</v>
       </c>
-      <c r="S20" t="s" s="26">
+      <c r="S20" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T20" s="31"/>
+      <c r="T20" s="17"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="24">
+      <c r="A21" t="s" s="11">
         <v>169</v>
       </c>
-      <c r="B21" t="s" s="33">
+      <c r="B21" t="s" s="29">
         <v>125</v>
       </c>
-      <c r="C21" t="s" s="26">
+      <c r="C21" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D21" t="s" s="26">
+      <c r="D21" t="s" s="16">
         <v>110</v>
       </c>
-      <c r="E21" t="s" s="27">
+      <c r="E21" t="s" s="18">
         <v>155</v>
       </c>
-      <c r="F21" t="s" s="27">
+      <c r="F21" t="s" s="18">
         <v>112</v>
       </c>
-      <c r="G21" t="s" s="28">
+      <c r="G21" t="s" s="27">
         <v>113</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" s="14">
         <v>2</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="14">
         <v>2</v>
       </c>
-      <c r="J21" t="s" s="26">
+      <c r="J21" t="s" s="16">
         <v>170</v>
       </c>
-      <c r="K21" s="29">
+      <c r="K21" s="14">
         <v>2.4</v>
       </c>
-      <c r="L21" s="29">
+      <c r="L21" s="14">
         <v>2</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M21" s="14">
         <v>49</v>
       </c>
-      <c r="N21" s="30">
+      <c r="N21" s="15">
         <v>19619</v>
       </c>
-      <c r="O21" t="s" s="26">
+      <c r="O21" t="s" s="16">
         <v>136</v>
       </c>
-      <c r="P21" t="s" s="27">
+      <c r="P21" t="s" s="18">
         <v>116</v>
       </c>
-      <c r="Q21" t="s" s="27">
+      <c r="Q21" t="s" s="18">
         <v>129</v>
       </c>
-      <c r="R21" s="31"/>
-      <c r="S21" t="s" s="26">
+      <c r="R21" s="17"/>
+      <c r="S21" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T21" s="31"/>
+      <c r="T21" s="17"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="24">
+      <c r="A22" t="s" s="11">
         <v>171</v>
       </c>
-      <c r="B22" t="s" s="33">
+      <c r="B22" t="s" s="29">
         <v>125</v>
       </c>
-      <c r="C22" t="s" s="26">
+      <c r="C22" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D22" t="s" s="26">
+      <c r="D22" t="s" s="16">
         <v>110</v>
       </c>
-      <c r="E22" t="s" s="27">
+      <c r="E22" t="s" s="18">
         <v>121</v>
       </c>
-      <c r="F22" t="s" s="27">
+      <c r="F22" t="s" s="18">
         <v>126</v>
       </c>
-      <c r="G22" t="s" s="32">
+      <c r="G22" t="s" s="28">
         <v>122</v>
       </c>
-      <c r="H22" s="29">
+      <c r="H22" s="14">
         <v>3</v>
       </c>
-      <c r="I22" s="29">
-        <v>0</v>
-      </c>
-      <c r="J22" t="s" s="26">
+      <c r="I22" s="14">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s" s="16">
         <v>172</v>
       </c>
-      <c r="K22" s="29">
+      <c r="K22" s="14">
         <v>1.6</v>
       </c>
-      <c r="L22" s="29">
+      <c r="L22" s="14">
         <v>0.2</v>
       </c>
-      <c r="M22" s="29">
+      <c r="M22" s="14">
         <v>41</v>
       </c>
-      <c r="N22" s="30">
+      <c r="N22" s="15">
         <v>25189</v>
       </c>
-      <c r="O22" t="s" s="26">
+      <c r="O22" t="s" s="16">
         <v>136</v>
       </c>
-      <c r="P22" t="s" s="27">
+      <c r="P22" t="s" s="18">
         <v>116</v>
       </c>
-      <c r="Q22" t="s" s="27">
+      <c r="Q22" t="s" s="18">
         <v>129</v>
       </c>
-      <c r="R22" s="31"/>
-      <c r="S22" t="s" s="26">
+      <c r="R22" s="17"/>
+      <c r="S22" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T22" s="31"/>
+      <c r="T22" s="17"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="24">
+      <c r="A23" t="s" s="11">
         <v>173</v>
       </c>
-      <c r="B23" t="s" s="33">
+      <c r="B23" t="s" s="29">
         <v>125</v>
       </c>
-      <c r="C23" t="s" s="26">
+      <c r="C23" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D23" t="s" s="26">
+      <c r="D23" t="s" s="16">
         <v>110</v>
       </c>
-      <c r="E23" t="s" s="27">
+      <c r="E23" t="s" s="18">
         <v>121</v>
       </c>
-      <c r="F23" t="s" s="27">
+      <c r="F23" t="s" s="18">
         <v>126</v>
       </c>
-      <c r="G23" t="s" s="28">
+      <c r="G23" t="s" s="27">
         <v>113</v>
       </c>
-      <c r="H23" s="29">
+      <c r="H23" s="14">
         <v>2</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I23" s="14">
         <v>2</v>
       </c>
-      <c r="J23" t="s" s="26">
+      <c r="J23" t="s" s="16">
         <v>156</v>
       </c>
-      <c r="K23" s="29">
+      <c r="K23" s="14">
         <v>1.8</v>
       </c>
-      <c r="L23" s="29">
+      <c r="L23" s="14">
         <v>0.6</v>
       </c>
-      <c r="M23" s="29">
+      <c r="M23" s="14">
         <v>70</v>
       </c>
-      <c r="N23" s="30">
+      <c r="N23" s="15">
         <v>18315</v>
       </c>
-      <c r="O23" t="s" s="26">
+      <c r="O23" t="s" s="16">
         <v>136</v>
       </c>
-      <c r="P23" t="s" s="27">
+      <c r="P23" t="s" s="18">
         <v>116</v>
       </c>
-      <c r="Q23" t="s" s="27">
+      <c r="Q23" t="s" s="18">
         <v>174</v>
       </c>
-      <c r="R23" s="31"/>
-      <c r="S23" t="s" s="26">
+      <c r="R23" s="17"/>
+      <c r="S23" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T23" s="31"/>
+      <c r="T23" s="17"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="24">
+      <c r="A24" t="s" s="11">
         <v>175</v>
       </c>
-      <c r="B24" t="s" s="33">
+      <c r="B24" t="s" s="29">
         <v>125</v>
       </c>
-      <c r="C24" t="s" s="26">
+      <c r="C24" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D24" t="s" s="26">
+      <c r="D24" t="s" s="16">
         <v>110</v>
       </c>
-      <c r="E24" t="s" s="27">
+      <c r="E24" t="s" s="18">
         <v>121</v>
       </c>
-      <c r="F24" t="s" s="27">
+      <c r="F24" t="s" s="18">
         <v>112</v>
       </c>
-      <c r="G24" t="s" s="28">
+      <c r="G24" t="s" s="27">
         <v>113</v>
       </c>
-      <c r="H24" s="29">
-        <v>0</v>
-      </c>
-      <c r="I24" s="29">
-        <v>0</v>
-      </c>
-      <c r="J24" t="s" s="26">
+      <c r="H24" s="14">
+        <v>0</v>
+      </c>
+      <c r="I24" s="14">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s" s="16">
         <v>176</v>
       </c>
-      <c r="K24" s="29">
+      <c r="K24" s="14">
         <v>3.1</v>
       </c>
-      <c r="L24" s="29">
+      <c r="L24" s="14">
         <v>2.5</v>
       </c>
-      <c r="M24" s="29">
+      <c r="M24" s="14">
         <v>47</v>
       </c>
-      <c r="N24" s="30">
+      <c r="N24" s="15">
         <v>18915</v>
       </c>
-      <c r="O24" t="s" s="26">
+      <c r="O24" t="s" s="16">
         <v>177</v>
       </c>
-      <c r="P24" t="s" s="27">
+      <c r="P24" t="s" s="18">
         <v>116</v>
       </c>
-      <c r="Q24" t="s" s="27">
+      <c r="Q24" t="s" s="18">
         <v>157</v>
       </c>
-      <c r="R24" s="31"/>
-      <c r="S24" t="s" s="26">
+      <c r="R24" s="17"/>
+      <c r="S24" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T24" s="31"/>
+      <c r="T24" s="17"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="24">
+      <c r="A25" t="s" s="11">
         <v>178</v>
       </c>
-      <c r="B25" t="s" s="25">
+      <c r="B25" t="s" s="26">
         <v>179</v>
       </c>
-      <c r="C25" t="s" s="26">
+      <c r="C25" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D25" t="s" s="26">
+      <c r="D25" t="s" s="16">
         <v>110</v>
       </c>
-      <c r="E25" t="s" s="27">
+      <c r="E25" t="s" s="18">
         <v>121</v>
       </c>
-      <c r="F25" t="s" s="27">
+      <c r="F25" t="s" s="18">
         <v>112</v>
       </c>
-      <c r="G25" t="s" s="28">
+      <c r="G25" t="s" s="27">
         <v>113</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H25" s="14">
         <v>1</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I25" s="14">
         <v>1</v>
       </c>
-      <c r="J25" t="s" s="26">
+      <c r="J25" t="s" s="16">
         <v>180</v>
       </c>
-      <c r="K25" s="29">
+      <c r="K25" s="14">
         <v>1.6</v>
       </c>
-      <c r="L25" s="29">
+      <c r="L25" s="14">
         <v>1.9</v>
       </c>
-      <c r="M25" s="29">
+      <c r="M25" s="14">
         <v>39</v>
       </c>
-      <c r="N25" s="30">
+      <c r="N25" s="15">
         <v>15387</v>
       </c>
-      <c r="O25" t="s" s="26">
+      <c r="O25" t="s" s="16">
         <v>136</v>
       </c>
-      <c r="P25" t="s" s="27">
+      <c r="P25" t="s" s="18">
         <v>129</v>
       </c>
-      <c r="Q25" t="s" s="27">
+      <c r="Q25" t="s" s="18">
         <v>128</v>
       </c>
-      <c r="R25" t="s" s="27">
+      <c r="R25" t="s" s="18">
         <v>181</v>
       </c>
-      <c r="S25" t="s" s="26">
+      <c r="S25" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T25" s="31"/>
+      <c r="T25" s="17"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="24">
+      <c r="A26" t="s" s="11">
         <v>182</v>
       </c>
-      <c r="B26" t="s" s="33">
+      <c r="B26" t="s" s="29">
         <v>125</v>
       </c>
-      <c r="C26" t="s" s="26">
+      <c r="C26" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D26" t="s" s="26">
+      <c r="D26" t="s" s="16">
         <v>110</v>
       </c>
-      <c r="E26" t="s" s="27">
+      <c r="E26" t="s" s="18">
         <v>155</v>
       </c>
-      <c r="F26" t="s" s="27">
+      <c r="F26" t="s" s="18">
         <v>126</v>
       </c>
-      <c r="G26" t="s" s="28">
+      <c r="G26" t="s" s="27">
         <v>113</v>
       </c>
-      <c r="H26" s="29">
+      <c r="H26" s="14">
         <v>2</v>
       </c>
-      <c r="I26" s="29">
+      <c r="I26" s="14">
         <v>2</v>
       </c>
-      <c r="J26" t="s" s="26">
+      <c r="J26" t="s" s="16">
         <v>170</v>
       </c>
-      <c r="K26" s="29">
+      <c r="K26" s="14">
         <v>1.9</v>
       </c>
-      <c r="L26" s="29">
+      <c r="L26" s="14">
         <v>1.3</v>
       </c>
-      <c r="M26" s="29">
+      <c r="M26" s="14">
         <v>38</v>
       </c>
-      <c r="N26" s="30">
+      <c r="N26" s="15">
         <v>15128</v>
       </c>
-      <c r="O26" t="s" s="26">
+      <c r="O26" t="s" s="16">
         <v>136</v>
       </c>
-      <c r="P26" t="s" s="27">
+      <c r="P26" t="s" s="18">
         <v>116</v>
       </c>
-      <c r="Q26" t="s" s="27">
+      <c r="Q26" t="s" s="18">
         <v>165</v>
       </c>
-      <c r="R26" s="31"/>
-      <c r="S26" t="s" s="26">
+      <c r="R26" s="17"/>
+      <c r="S26" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T26" s="31"/>
+      <c r="T26" s="17"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="24">
+      <c r="A27" t="s" s="11">
         <v>183</v>
       </c>
-      <c r="B27" t="s" s="33">
+      <c r="B27" t="s" s="29">
         <v>125</v>
       </c>
-      <c r="C27" t="s" s="26">
+      <c r="C27" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D27" t="s" s="26">
+      <c r="D27" t="s" s="16">
         <v>110</v>
       </c>
-      <c r="E27" t="s" s="27">
+      <c r="E27" t="s" s="18">
         <v>121</v>
       </c>
-      <c r="F27" t="s" s="27">
+      <c r="F27" t="s" s="18">
         <v>126</v>
       </c>
-      <c r="G27" t="s" s="32">
+      <c r="G27" t="s" s="28">
         <v>122</v>
       </c>
-      <c r="H27" s="29">
+      <c r="H27" s="14">
         <v>3</v>
       </c>
-      <c r="I27" s="29">
+      <c r="I27" s="14">
         <v>1</v>
       </c>
-      <c r="J27" t="s" s="26">
+      <c r="J27" t="s" s="16">
         <v>141</v>
       </c>
-      <c r="K27" s="29">
+      <c r="K27" s="14">
         <v>1.9</v>
       </c>
-      <c r="L27" s="29">
+      <c r="L27" s="14">
         <v>0.5</v>
       </c>
-      <c r="M27" s="29">
+      <c r="M27" s="14">
         <v>35</v>
       </c>
-      <c r="N27" s="30">
+      <c r="N27" s="15">
         <v>19828</v>
       </c>
-      <c r="O27" t="s" s="26">
+      <c r="O27" t="s" s="16">
         <v>177</v>
       </c>
-      <c r="P27" t="s" s="27">
+      <c r="P27" t="s" s="18">
         <v>128</v>
       </c>
-      <c r="Q27" t="s" s="27">
+      <c r="Q27" t="s" s="18">
         <v>142</v>
       </c>
-      <c r="R27" t="s" s="27">
+      <c r="R27" t="s" s="18">
         <v>184</v>
       </c>
-      <c r="S27" t="s" s="26">
+      <c r="S27" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T27" s="31"/>
+      <c r="T27" s="17"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="24">
+      <c r="A28" t="s" s="11">
         <v>185</v>
       </c>
-      <c r="B28" t="s" s="33">
+      <c r="B28" t="s" s="29">
         <v>125</v>
       </c>
-      <c r="C28" t="s" s="26">
+      <c r="C28" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D28" t="s" s="26">
+      <c r="D28" t="s" s="16">
         <v>110</v>
       </c>
-      <c r="E28" t="s" s="27">
+      <c r="E28" t="s" s="18">
         <v>121</v>
       </c>
-      <c r="F28" t="s" s="27">
+      <c r="F28" t="s" s="18">
         <v>112</v>
       </c>
-      <c r="G28" t="s" s="28">
+      <c r="G28" t="s" s="27">
         <v>113</v>
       </c>
-      <c r="H28" s="29">
+      <c r="H28" s="14">
         <v>1</v>
       </c>
-      <c r="I28" s="29">
+      <c r="I28" s="14">
         <v>1</v>
       </c>
-      <c r="J28" t="s" s="26">
+      <c r="J28" t="s" s="16">
         <v>161</v>
       </c>
-      <c r="K28" s="29">
+      <c r="K28" s="14">
         <v>2.1</v>
       </c>
-      <c r="L28" s="29">
+      <c r="L28" s="14">
         <v>1.2</v>
       </c>
-      <c r="M28" s="29">
+      <c r="M28" s="14">
         <v>46</v>
       </c>
-      <c r="N28" s="30">
+      <c r="N28" s="15">
         <v>31320</v>
       </c>
-      <c r="O28" t="s" s="26">
+      <c r="O28" t="s" s="16">
         <v>136</v>
       </c>
-      <c r="P28" t="s" s="27">
+      <c r="P28" t="s" s="18">
         <v>116</v>
       </c>
-      <c r="Q28" t="s" s="27">
+      <c r="Q28" t="s" s="18">
         <v>128</v>
       </c>
-      <c r="R28" t="s" s="27">
+      <c r="R28" t="s" s="18">
         <v>186</v>
       </c>
-      <c r="S28" t="s" s="26">
+      <c r="S28" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T28" s="31"/>
+      <c r="T28" s="17"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="24">
+      <c r="A29" t="s" s="11">
         <v>187</v>
       </c>
-      <c r="B29" t="s" s="33">
+      <c r="B29" t="s" s="29">
         <v>125</v>
       </c>
-      <c r="C29" t="s" s="26">
+      <c r="C29" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D29" t="s" s="26">
+      <c r="D29" t="s" s="16">
         <v>110</v>
       </c>
-      <c r="E29" t="s" s="27">
+      <c r="E29" t="s" s="18">
         <v>121</v>
       </c>
-      <c r="F29" t="s" s="27">
+      <c r="F29" t="s" s="18">
         <v>126</v>
       </c>
-      <c r="G29" t="s" s="34">
+      <c r="G29" t="s" s="30">
         <v>131</v>
       </c>
-      <c r="H29" s="29">
-        <v>0</v>
-      </c>
-      <c r="I29" s="29">
+      <c r="H29" s="14">
+        <v>0</v>
+      </c>
+      <c r="I29" s="14">
         <v>2</v>
       </c>
-      <c r="J29" t="s" s="26">
+      <c r="J29" t="s" s="16">
         <v>176</v>
       </c>
-      <c r="K29" s="29">
+      <c r="K29" s="14">
         <v>1.6</v>
       </c>
-      <c r="L29" s="29">
+      <c r="L29" s="14">
         <v>2.4</v>
       </c>
-      <c r="M29" s="29">
+      <c r="M29" s="14">
         <v>59</v>
       </c>
-      <c r="N29" s="30">
+      <c r="N29" s="15">
         <v>19951</v>
       </c>
-      <c r="O29" t="s" s="26">
+      <c r="O29" t="s" s="16">
         <v>136</v>
       </c>
-      <c r="P29" t="s" s="27">
+      <c r="P29" t="s" s="18">
         <v>116</v>
       </c>
-      <c r="Q29" t="s" s="27">
+      <c r="Q29" t="s" s="18">
         <v>188</v>
       </c>
-      <c r="R29" t="s" s="27">
+      <c r="R29" t="s" s="18">
         <v>189</v>
       </c>
-      <c r="S29" t="s" s="26">
+      <c r="S29" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T29" s="31"/>
+      <c r="T29" s="17"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="24">
+      <c r="A30" t="s" s="11">
         <v>190</v>
       </c>
-      <c r="B30" t="s" s="33">
+      <c r="B30" t="s" s="29">
         <v>125</v>
       </c>
-      <c r="C30" t="s" s="26">
+      <c r="C30" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D30" t="s" s="26">
+      <c r="D30" t="s" s="16">
         <v>110</v>
       </c>
-      <c r="E30" t="s" s="27">
+      <c r="E30" t="s" s="18">
         <v>121</v>
       </c>
-      <c r="F30" t="s" s="27">
+      <c r="F30" t="s" s="18">
         <v>126</v>
       </c>
-      <c r="G30" t="s" s="28">
+      <c r="G30" t="s" s="27">
         <v>113</v>
       </c>
-      <c r="H30" s="29">
+      <c r="H30" s="14">
         <v>1</v>
       </c>
-      <c r="I30" s="29">
+      <c r="I30" s="14">
         <v>1</v>
       </c>
-      <c r="J30" t="s" s="26">
+      <c r="J30" t="s" s="16">
         <v>191</v>
       </c>
-      <c r="K30" s="29">
+      <c r="K30" s="14">
         <v>1.4</v>
       </c>
-      <c r="L30" s="29">
+      <c r="L30" s="14">
         <v>0.9</v>
       </c>
-      <c r="M30" s="29">
+      <c r="M30" s="14">
         <v>59</v>
       </c>
-      <c r="N30" s="30">
+      <c r="N30" s="15">
         <v>17708</v>
       </c>
-      <c r="O30" t="s" s="26">
+      <c r="O30" t="s" s="16">
         <v>136</v>
       </c>
-      <c r="P30" t="s" s="27">
+      <c r="P30" t="s" s="18">
         <v>116</v>
       </c>
-      <c r="Q30" t="s" s="27">
+      <c r="Q30" t="s" s="18">
         <v>128</v>
       </c>
-      <c r="R30" t="s" s="27">
+      <c r="R30" t="s" s="18">
         <v>192</v>
       </c>
-      <c r="S30" t="s" s="26">
+      <c r="S30" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T30" s="31"/>
+      <c r="T30" s="17"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="24">
+      <c r="A31" t="s" s="11">
         <v>193</v>
       </c>
-      <c r="B31" t="s" s="25">
+      <c r="B31" t="s" s="26">
         <v>120</v>
       </c>
-      <c r="C31" t="s" s="26">
+      <c r="C31" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D31" t="s" s="26">
+      <c r="D31" t="s" s="16">
         <v>110</v>
       </c>
-      <c r="E31" t="s" s="27">
+      <c r="E31" t="s" s="18">
         <v>121</v>
       </c>
-      <c r="F31" t="s" s="27">
+      <c r="F31" t="s" s="18">
         <v>112</v>
       </c>
-      <c r="G31" t="s" s="34">
+      <c r="G31" t="s" s="30">
         <v>131</v>
       </c>
-      <c r="H31" s="29">
+      <c r="H31" s="14">
         <v>1</v>
       </c>
-      <c r="I31" s="29">
+      <c r="I31" s="14">
         <v>2</v>
       </c>
-      <c r="J31" t="s" s="26">
+      <c r="J31" t="s" s="16">
         <v>144</v>
       </c>
-      <c r="K31" s="29">
+      <c r="K31" s="14">
         <v>1.5</v>
       </c>
-      <c r="L31" s="29">
+      <c r="L31" s="14">
         <v>2.1</v>
       </c>
-      <c r="M31" s="29">
+      <c r="M31" s="14">
         <v>51</v>
       </c>
-      <c r="N31" s="30">
+      <c r="N31" s="15">
         <v>22188</v>
       </c>
-      <c r="O31" t="s" s="26">
+      <c r="O31" t="s" s="16">
         <v>194</v>
       </c>
-      <c r="P31" t="s" s="27">
+      <c r="P31" t="s" s="18">
         <v>116</v>
       </c>
-      <c r="Q31" t="s" s="27">
+      <c r="Q31" t="s" s="18">
         <v>137</v>
       </c>
-      <c r="R31" t="s" s="27">
+      <c r="R31" t="s" s="18">
         <v>195</v>
       </c>
-      <c r="S31" t="s" s="26">
+      <c r="S31" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T31" s="31"/>
+      <c r="T31" s="17"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="24">
+      <c r="A32" t="s" s="11">
         <v>196</v>
       </c>
-      <c r="B32" t="s" s="33">
+      <c r="B32" t="s" s="29">
         <v>125</v>
       </c>
-      <c r="C32" t="s" s="26">
+      <c r="C32" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D32" t="s" s="26">
+      <c r="D32" t="s" s="16">
         <v>110</v>
       </c>
-      <c r="E32" t="s" s="27">
+      <c r="E32" t="s" s="18">
         <v>121</v>
       </c>
-      <c r="F32" t="s" s="27">
+      <c r="F32" t="s" s="18">
         <v>126</v>
       </c>
-      <c r="G32" t="s" s="28">
+      <c r="G32" t="s" s="27">
         <v>113</v>
       </c>
-      <c r="H32" s="29">
+      <c r="H32" s="14">
         <v>2</v>
       </c>
-      <c r="I32" s="29">
+      <c r="I32" s="14">
         <v>2</v>
       </c>
-      <c r="J32" t="s" s="26">
+      <c r="J32" t="s" s="16">
         <v>197</v>
       </c>
-      <c r="K32" s="29">
+      <c r="K32" s="14">
         <v>3.3</v>
       </c>
-      <c r="L32" s="29">
+      <c r="L32" s="14">
         <v>1.7</v>
       </c>
-      <c r="M32" s="29">
+      <c r="M32" s="14">
         <v>63</v>
       </c>
-      <c r="N32" s="30">
+      <c r="N32" s="15">
         <v>19751</v>
       </c>
-      <c r="O32" t="s" s="26">
+      <c r="O32" t="s" s="16">
         <v>198</v>
       </c>
-      <c r="P32" t="s" s="27">
+      <c r="P32" t="s" s="18">
         <v>116</v>
       </c>
-      <c r="Q32" t="s" s="27">
+      <c r="Q32" t="s" s="18">
         <v>157</v>
       </c>
-      <c r="R32" t="s" s="27">
+      <c r="R32" t="s" s="18">
         <v>163</v>
       </c>
-      <c r="S32" t="s" s="26">
+      <c r="S32" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T32" s="31"/>
+      <c r="T32" s="17"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="24">
+      <c r="A33" t="s" s="11">
         <v>199</v>
       </c>
-      <c r="B33" t="s" s="33">
+      <c r="B33" t="s" s="29">
         <v>125</v>
       </c>
-      <c r="C33" t="s" s="26">
+      <c r="C33" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D33" t="s" s="26">
+      <c r="D33" t="s" s="16">
         <v>110</v>
       </c>
-      <c r="E33" t="s" s="27">
+      <c r="E33" t="s" s="18">
         <v>121</v>
       </c>
-      <c r="F33" t="s" s="27">
+      <c r="F33" t="s" s="18">
         <v>126</v>
       </c>
-      <c r="G33" t="s" s="34">
+      <c r="G33" t="s" s="30">
         <v>131</v>
       </c>
-      <c r="H33" s="29">
+      <c r="H33" s="14">
         <v>1</v>
       </c>
-      <c r="I33" s="29">
+      <c r="I33" s="14">
         <v>5</v>
       </c>
-      <c r="J33" t="s" s="26">
+      <c r="J33" t="s" s="16">
         <v>159</v>
       </c>
-      <c r="K33" s="29">
+      <c r="K33" s="14">
         <v>1.5</v>
       </c>
-      <c r="L33" s="29">
+      <c r="L33" s="14">
         <v>2.2</v>
       </c>
-      <c r="M33" s="29">
+      <c r="M33" s="14">
         <v>51</v>
       </c>
-      <c r="N33" s="30">
+      <c r="N33" s="15">
         <v>25291</v>
       </c>
-      <c r="O33" t="s" s="26">
+      <c r="O33" t="s" s="16">
         <v>198</v>
       </c>
-      <c r="P33" t="s" s="27">
+      <c r="P33" t="s" s="18">
         <v>116</v>
       </c>
-      <c r="Q33" t="s" s="27">
+      <c r="Q33" t="s" s="18">
         <v>116</v>
       </c>
-      <c r="R33" t="s" s="27">
+      <c r="R33" t="s" s="18">
         <v>200</v>
       </c>
-      <c r="S33" t="s" s="26">
+      <c r="S33" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T33" s="31"/>
+      <c r="T33" s="17"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="24">
+      <c r="A34" t="s" s="11">
         <v>201</v>
       </c>
-      <c r="B34" t="s" s="33">
+      <c r="B34" t="s" s="29">
         <v>125</v>
       </c>
-      <c r="C34" t="s" s="26">
+      <c r="C34" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D34" t="s" s="26">
+      <c r="D34" t="s" s="16">
         <v>110</v>
       </c>
-      <c r="E34" t="s" s="27">
+      <c r="E34" t="s" s="18">
         <v>155</v>
       </c>
-      <c r="F34" t="s" s="27">
+      <c r="F34" t="s" s="18">
         <v>112</v>
       </c>
-      <c r="G34" t="s" s="32">
+      <c r="G34" t="s" s="28">
         <v>122</v>
       </c>
-      <c r="H34" s="29">
+      <c r="H34" s="14">
         <v>4</v>
       </c>
-      <c r="I34" s="29">
+      <c r="I34" s="14">
         <v>1</v>
       </c>
-      <c r="J34" t="s" s="26">
+      <c r="J34" t="s" s="16">
         <v>172</v>
       </c>
-      <c r="K34" s="29">
+      <c r="K34" s="14">
         <v>2.2</v>
       </c>
-      <c r="L34" s="29">
+      <c r="L34" s="14">
         <v>1.7</v>
       </c>
-      <c r="M34" s="29">
+      <c r="M34" s="14">
         <v>43</v>
       </c>
-      <c r="N34" s="30">
+      <c r="N34" s="15">
         <v>21575</v>
       </c>
-      <c r="O34" t="s" s="26">
+      <c r="O34" t="s" s="16">
         <v>115</v>
       </c>
-      <c r="P34" t="s" s="27">
+      <c r="P34" t="s" s="18">
         <v>116</v>
       </c>
-      <c r="Q34" t="s" s="27">
+      <c r="Q34" t="s" s="18">
         <v>129</v>
       </c>
-      <c r="R34" t="s" s="27">
+      <c r="R34" t="s" s="18">
         <v>202</v>
       </c>
-      <c r="S34" t="s" s="26">
+      <c r="S34" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T34" s="31"/>
+      <c r="T34" s="17"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" t="s" s="24">
+      <c r="A35" t="s" s="11">
         <v>203</v>
       </c>
-      <c r="B35" t="s" s="33">
+      <c r="B35" t="s" s="29">
         <v>125</v>
       </c>
-      <c r="C35" t="s" s="26">
+      <c r="C35" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D35" t="s" s="26">
+      <c r="D35" t="s" s="16">
         <v>110</v>
       </c>
-      <c r="E35" t="s" s="27">
+      <c r="E35" t="s" s="18">
         <v>121</v>
       </c>
-      <c r="F35" t="s" s="27">
+      <c r="F35" t="s" s="18">
         <v>112</v>
       </c>
-      <c r="G35" t="s" s="34">
+      <c r="G35" t="s" s="30">
         <v>131</v>
       </c>
-      <c r="H35" s="29">
+      <c r="H35" s="14">
         <v>1</v>
       </c>
-      <c r="I35" s="29">
+      <c r="I35" s="14">
         <v>2</v>
       </c>
-      <c r="J35" t="s" s="26">
+      <c r="J35" t="s" s="16">
         <v>197</v>
       </c>
-      <c r="K35" s="29">
+      <c r="K35" s="14">
         <v>0.5</v>
       </c>
-      <c r="L35" s="29">
+      <c r="L35" s="14">
         <v>2</v>
       </c>
-      <c r="M35" s="29">
+      <c r="M35" s="14">
         <v>35</v>
       </c>
-      <c r="N35" s="30">
+      <c r="N35" s="15">
         <v>43428</v>
       </c>
-      <c r="O35" t="s" s="26">
+      <c r="O35" t="s" s="16">
         <v>136</v>
       </c>
-      <c r="P35" t="s" s="27">
+      <c r="P35" t="s" s="18">
         <v>137</v>
       </c>
-      <c r="Q35" t="s" s="27">
+      <c r="Q35" t="s" s="18">
         <v>128</v>
       </c>
-      <c r="R35" t="s" s="27">
+      <c r="R35" t="s" s="18">
         <v>204</v>
       </c>
-      <c r="S35" t="s" s="26">
+      <c r="S35" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T35" s="31"/>
+      <c r="T35" s="17"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" t="s" s="24">
+      <c r="A36" t="s" s="11">
         <v>205</v>
       </c>
-      <c r="B36" t="s" s="33">
+      <c r="B36" t="s" s="29">
         <v>206</v>
       </c>
-      <c r="C36" t="s" s="26">
+      <c r="C36" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D36" t="s" s="26">
+      <c r="D36" t="s" s="16">
         <v>110</v>
       </c>
-      <c r="E36" t="s" s="27">
+      <c r="E36" t="s" s="18">
         <v>121</v>
       </c>
-      <c r="F36" t="s" s="27">
+      <c r="F36" t="s" s="18">
         <v>126</v>
       </c>
-      <c r="G36" t="s" s="34">
+      <c r="G36" t="s" s="30">
         <v>131</v>
       </c>
-      <c r="H36" s="29">
+      <c r="H36" s="14">
         <v>2</v>
       </c>
-      <c r="I36" s="29">
+      <c r="I36" s="14">
         <v>3</v>
       </c>
-      <c r="J36" t="s" s="26">
+      <c r="J36" t="s" s="16">
         <v>132</v>
       </c>
-      <c r="K36" s="29">
+      <c r="K36" s="14">
         <v>2.3</v>
       </c>
-      <c r="L36" s="29">
+      <c r="L36" s="14">
         <v>1.7</v>
       </c>
-      <c r="M36" s="29">
+      <c r="M36" s="14">
         <v>30</v>
       </c>
-      <c r="N36" s="30">
+      <c r="N36" s="15">
         <v>24515</v>
       </c>
-      <c r="O36" t="s" s="26">
+      <c r="O36" t="s" s="16">
         <v>115</v>
       </c>
-      <c r="P36" t="s" s="27">
+      <c r="P36" t="s" s="18">
         <v>207</v>
       </c>
-      <c r="Q36" t="s" s="27">
+      <c r="Q36" t="s" s="18">
         <v>129</v>
       </c>
-      <c r="R36" t="s" s="27">
+      <c r="R36" t="s" s="18">
         <v>168</v>
       </c>
-      <c r="S36" t="s" s="26">
+      <c r="S36" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T36" s="31"/>
+      <c r="T36" s="17"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="24">
+      <c r="A37" t="s" s="11">
         <v>208</v>
       </c>
-      <c r="B37" t="s" s="33">
+      <c r="B37" t="s" s="29">
         <v>209</v>
       </c>
-      <c r="C37" t="s" s="26">
+      <c r="C37" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D37" t="s" s="26">
+      <c r="D37" t="s" s="16">
         <v>210</v>
       </c>
-      <c r="E37" t="s" s="27">
+      <c r="E37" t="s" s="18">
         <v>211</v>
       </c>
-      <c r="F37" t="s" s="27">
+      <c r="F37" t="s" s="18">
         <v>112</v>
       </c>
-      <c r="G37" t="s" s="32">
+      <c r="G37" t="s" s="28">
         <v>122</v>
       </c>
-      <c r="H37" s="29">
+      <c r="H37" s="14">
         <v>1</v>
       </c>
-      <c r="I37" s="29">
-        <v>0</v>
-      </c>
-      <c r="J37" t="s" s="26">
+      <c r="I37" s="14">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s" s="16">
         <v>132</v>
       </c>
-      <c r="K37" s="29">
+      <c r="K37" s="14">
         <v>0.9</v>
       </c>
-      <c r="L37" s="29">
+      <c r="L37" s="14">
         <v>1.1</v>
       </c>
-      <c r="M37" s="29">
+      <c r="M37" s="14">
         <v>23</v>
       </c>
-      <c r="N37" s="30">
+      <c r="N37" s="15">
         <v>19050</v>
       </c>
-      <c r="O37" t="s" s="26">
+      <c r="O37" t="s" s="16">
         <v>115</v>
       </c>
-      <c r="P37" t="s" s="27">
+      <c r="P37" t="s" s="18">
         <v>142</v>
       </c>
-      <c r="Q37" t="s" s="27">
+      <c r="Q37" t="s" s="18">
         <v>129</v>
       </c>
-      <c r="R37" t="s" s="27">
+      <c r="R37" t="s" s="18">
         <v>181</v>
       </c>
-      <c r="S37" t="s" s="26">
+      <c r="S37" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T37" s="31"/>
+      <c r="T37" s="17"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="24">
+      <c r="A38" t="s" s="11">
         <v>212</v>
       </c>
-      <c r="B38" t="s" s="33">
+      <c r="B38" t="s" s="29">
         <v>213</v>
       </c>
-      <c r="C38" t="s" s="26">
+      <c r="C38" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D38" t="s" s="26">
+      <c r="D38" t="s" s="16">
         <v>210</v>
       </c>
-      <c r="E38" t="s" s="27">
+      <c r="E38" t="s" s="18">
         <v>111</v>
       </c>
-      <c r="F38" t="s" s="27">
+      <c r="F38" t="s" s="18">
         <v>126</v>
       </c>
-      <c r="G38" t="s" s="28">
+      <c r="G38" t="s" s="27">
         <v>113</v>
       </c>
-      <c r="H38" t="s" s="35">
+      <c r="H38" t="s" s="31">
         <v>214</v>
       </c>
-      <c r="I38" t="s" s="35">
+      <c r="I38" t="s" s="31">
         <v>215</v>
       </c>
-      <c r="J38" t="s" s="26">
+      <c r="J38" t="s" s="16">
         <v>132</v>
       </c>
-      <c r="K38" s="29">
+      <c r="K38" s="14">
         <v>2</v>
       </c>
-      <c r="L38" s="29">
+      <c r="L38" s="14">
         <v>2.1</v>
       </c>
-      <c r="M38" s="29">
+      <c r="M38" s="14">
         <v>36</v>
       </c>
-      <c r="N38" s="30">
+      <c r="N38" s="15">
         <v>20936</v>
       </c>
-      <c r="O38" t="s" s="26">
+      <c r="O38" t="s" s="16">
         <v>115</v>
       </c>
-      <c r="P38" t="s" s="27">
+      <c r="P38" t="s" s="18">
         <v>129</v>
       </c>
-      <c r="Q38" t="s" s="27">
+      <c r="Q38" t="s" s="18">
         <v>142</v>
       </c>
-      <c r="R38" t="s" s="27">
+      <c r="R38" t="s" s="18">
         <v>202</v>
       </c>
-      <c r="S38" t="s" s="26">
+      <c r="S38" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T38" s="31"/>
+      <c r="T38" s="17"/>
     </row>
     <row r="39" ht="30.35" customHeight="1">
-      <c r="A39" t="s" s="24">
+      <c r="A39" t="s" s="11">
         <v>216</v>
       </c>
-      <c r="B39" t="s" s="33">
+      <c r="B39" t="s" s="29">
         <v>217</v>
       </c>
-      <c r="C39" t="s" s="26">
+      <c r="C39" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D39" t="s" s="26">
+      <c r="D39" t="s" s="16">
         <v>218</v>
       </c>
-      <c r="E39" t="s" s="27">
+      <c r="E39" t="s" s="18">
         <v>121</v>
       </c>
-      <c r="F39" t="s" s="27">
+      <c r="F39" t="s" s="18">
         <v>112</v>
       </c>
-      <c r="G39" t="s" s="32">
+      <c r="G39" t="s" s="28">
         <v>122</v>
       </c>
-      <c r="H39" s="29">
+      <c r="H39" s="14">
         <v>2</v>
       </c>
-      <c r="I39" s="29">
-        <v>0</v>
-      </c>
-      <c r="J39" t="s" s="26">
+      <c r="I39" s="14">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s" s="16">
         <v>159</v>
       </c>
-      <c r="K39" s="29">
+      <c r="K39" s="14">
         <v>1</v>
       </c>
-      <c r="L39" s="29">
+      <c r="L39" s="14">
         <v>2.8</v>
       </c>
-      <c r="M39" s="29">
+      <c r="M39" s="14">
         <v>30</v>
       </c>
-      <c r="N39" s="30">
+      <c r="N39" s="15">
         <v>24891</v>
       </c>
-      <c r="O39" t="s" s="26">
+      <c r="O39" t="s" s="16">
         <v>115</v>
       </c>
-      <c r="P39" t="s" s="27">
+      <c r="P39" t="s" s="18">
         <v>142</v>
       </c>
-      <c r="Q39" t="s" s="27">
+      <c r="Q39" t="s" s="18">
         <v>128</v>
       </c>
-      <c r="R39" t="s" s="27">
+      <c r="R39" t="s" s="18">
         <v>219</v>
       </c>
-      <c r="S39" t="s" s="26">
+      <c r="S39" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T39" s="31"/>
+      <c r="T39" s="17"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" t="s" s="24">
+      <c r="A40" t="s" s="11">
         <v>220</v>
       </c>
-      <c r="B40" t="s" s="33">
+      <c r="B40" t="s" s="29">
         <v>125</v>
       </c>
-      <c r="C40" t="s" s="26">
+      <c r="C40" t="s" s="16">
         <v>109</v>
       </c>
-      <c r="D40" t="s" s="26">
+      <c r="D40" t="s" s="16">
         <v>221</v>
       </c>
-      <c r="E40" t="s" s="27">
+      <c r="E40" t="s" s="18">
         <v>121</v>
       </c>
-      <c r="F40" t="s" s="27">
+      <c r="F40" t="s" s="18">
         <v>112</v>
       </c>
-      <c r="G40" t="s" s="32">
+      <c r="G40" t="s" s="28">
         <v>122</v>
       </c>
-      <c r="H40" s="29">
+      <c r="H40" s="14">
         <v>1</v>
       </c>
-      <c r="I40" s="29">
-        <v>0</v>
-      </c>
-      <c r="J40" t="s" s="26">
+      <c r="I40" s="14">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s" s="16">
         <v>139</v>
       </c>
-      <c r="K40" s="29">
+      <c r="K40" s="14">
         <v>0.8</v>
       </c>
-      <c r="L40" s="29">
+      <c r="L40" s="14">
         <v>0.9</v>
       </c>
-      <c r="M40" s="29">
+      <c r="M40" s="14">
         <v>40</v>
       </c>
-      <c r="N40" s="30">
+      <c r="N40" s="15">
         <v>25046</v>
       </c>
-      <c r="O40" t="s" s="26">
+      <c r="O40" t="s" s="16">
         <v>115</v>
       </c>
-      <c r="P40" t="s" s="27">
+      <c r="P40" t="s" s="18">
         <v>142</v>
       </c>
-      <c r="Q40" t="s" s="27">
+      <c r="Q40" t="s" s="18">
         <v>128</v>
       </c>
-      <c r="R40" t="s" s="27">
+      <c r="R40" t="s" s="18">
         <v>222</v>
       </c>
-      <c r="S40" t="s" s="26">
+      <c r="S40" t="s" s="16">
         <v>118</v>
       </c>
-      <c r="T40" s="31"/>
+      <c r="T40" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9793,8 +9707,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="24" width="16.3516" style="36" customWidth="1"/>
-    <col min="25" max="16384" width="16.3516" style="36" customWidth="1"/>
+    <col min="1" max="24" width="16.3516" style="32" customWidth="1"/>
+    <col min="25" max="16384" width="16.3516" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -10078,134 +9992,134 @@
       </c>
     </row>
     <row r="6" ht="14.7" customHeight="1">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="39"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="35"/>
     </row>
     <row r="7" ht="14.7" customHeight="1">
-      <c r="A7" s="40"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="42"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="38"/>
     </row>
     <row r="8" ht="14.7" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="42"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="38"/>
     </row>
     <row r="9" ht="14.7" customHeight="1">
-      <c r="A9" s="40"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="42"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="38"/>
     </row>
     <row r="10" ht="14.7" customHeight="1">
-      <c r="A10" s="43"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="45"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10241,8 +10155,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="31" width="16.3516" style="46" customWidth="1"/>
-    <col min="32" max="16384" width="16.3516" style="46" customWidth="1"/>
+    <col min="1" max="31" width="16.3516" style="42" customWidth="1"/>
+    <col min="32" max="16384" width="16.3516" style="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -10613,169 +10527,169 @@
       </c>
     </row>
     <row r="6" ht="14.7" customHeight="1">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="39"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="35"/>
     </row>
     <row r="7" ht="14.7" customHeight="1">
-      <c r="A7" s="40"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="42"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="38"/>
     </row>
     <row r="8" ht="14.7" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="41"/>
-      <c r="AB8" s="41"/>
-      <c r="AC8" s="41"/>
-      <c r="AD8" s="41"/>
-      <c r="AE8" s="42"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="38"/>
     </row>
     <row r="9" ht="14.7" customHeight="1">
-      <c r="A9" s="40"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="41"/>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="42"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="38"/>
     </row>
     <row r="10" ht="14.7" customHeight="1">
-      <c r="A10" s="43"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="44"/>
-      <c r="AA10" s="44"/>
-      <c r="AB10" s="44"/>
-      <c r="AC10" s="44"/>
-      <c r="AD10" s="44"/>
-      <c r="AE10" s="45"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -10815,8 +10729,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="23" width="16.3516" style="47" customWidth="1"/>
-    <col min="24" max="16384" width="16.3516" style="47" customWidth="1"/>
+    <col min="1" max="23" width="16.3516" style="43" customWidth="1"/>
+    <col min="24" max="16384" width="16.3516" style="43" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -11007,10 +10921,10 @@
       <c r="T4" s="14">
         <v>0.03</v>
       </c>
-      <c r="U4" s="48">
+      <c r="U4" s="44">
         <v>-0.3</v>
       </c>
-      <c r="V4" s="48">
+      <c r="V4" s="44">
         <v>-0.3</v>
       </c>
       <c r="W4" t="s" s="16">
@@ -11139,10 +11053,10 @@
       <c r="T6" s="14">
         <v>0.03</v>
       </c>
-      <c r="U6" s="48">
+      <c r="U6" s="44">
         <v>-0.3</v>
       </c>
-      <c r="V6" s="48">
+      <c r="V6" s="44">
         <v>-0.3</v>
       </c>
       <c r="W6" t="s" s="16">
@@ -11210,10 +11124,10 @@
       <c r="T7" s="14">
         <v>0.05</v>
       </c>
-      <c r="U7" s="49">
+      <c r="U7" s="45">
         <v>1.3</v>
       </c>
-      <c r="V7" s="49">
+      <c r="V7" s="45">
         <v>1.3</v>
       </c>
       <c r="W7" t="s" s="16">
@@ -11281,10 +11195,10 @@
       <c r="T8" s="14">
         <v>0.16</v>
       </c>
-      <c r="U8" s="48">
+      <c r="U8" s="44">
         <v>-4.3</v>
       </c>
-      <c r="V8" s="48">
+      <c r="V8" s="44">
         <v>-4.3</v>
       </c>
       <c r="W8" t="s" s="16">
@@ -11352,10 +11266,10 @@
       <c r="T9" s="14">
         <v>0.11</v>
       </c>
-      <c r="U9" s="49">
+      <c r="U9" s="45">
         <v>0.5</v>
       </c>
-      <c r="V9" s="49">
+      <c r="V9" s="45">
         <v>0.9</v>
       </c>
       <c r="W9" t="s" s="16">
@@ -11423,10 +11337,10 @@
       <c r="T10" s="14">
         <v>0.06</v>
       </c>
-      <c r="U10" s="48">
+      <c r="U10" s="44">
         <v>-1.9</v>
       </c>
-      <c r="V10" s="48">
+      <c r="V10" s="44">
         <v>-1.9</v>
       </c>
       <c r="W10" t="s" s="16">
@@ -11494,10 +11408,10 @@
       <c r="T11" s="14">
         <v>0.07000000000000001</v>
       </c>
-      <c r="U11" s="48">
+      <c r="U11" s="44">
         <v>-1.3</v>
       </c>
-      <c r="V11" s="48">
+      <c r="V11" s="44">
         <v>-1.3</v>
       </c>
       <c r="W11" t="s" s="16">
@@ -11565,10 +11479,10 @@
       <c r="T12" s="14">
         <v>0.04</v>
       </c>
-      <c r="U12" s="49">
+      <c r="U12" s="45">
         <v>0.1</v>
       </c>
-      <c r="V12" s="49">
+      <c r="V12" s="45">
         <v>0.1</v>
       </c>
       <c r="W12" t="s" s="16">
@@ -11636,10 +11550,10 @@
       <c r="T13" s="14">
         <v>0.06</v>
       </c>
-      <c r="U13" s="49">
+      <c r="U13" s="45">
         <v>0.9</v>
       </c>
-      <c r="V13" s="49">
+      <c r="V13" s="45">
         <v>0.9</v>
       </c>
       <c r="W13" t="s" s="16">
@@ -11707,10 +11621,10 @@
       <c r="T14" s="14">
         <v>0.06</v>
       </c>
-      <c r="U14" s="49">
+      <c r="U14" s="45">
         <v>0.5</v>
       </c>
-      <c r="V14" s="49">
+      <c r="V14" s="45">
         <v>0.5</v>
       </c>
       <c r="W14" t="s" s="16">
@@ -11778,10 +11692,10 @@
       <c r="T15" s="14">
         <v>0.16</v>
       </c>
-      <c r="U15" s="48">
+      <c r="U15" s="44">
         <v>-2.6</v>
       </c>
-      <c r="V15" s="48">
+      <c r="V15" s="44">
         <v>-2</v>
       </c>
       <c r="W15" t="s" s="16">
@@ -11849,10 +11763,10 @@
       <c r="T16" s="14">
         <v>0.11</v>
       </c>
-      <c r="U16" s="49">
+      <c r="U16" s="45">
         <v>0.4</v>
       </c>
-      <c r="V16" s="49">
+      <c r="V16" s="45">
         <v>0.4</v>
       </c>
       <c r="W16" t="s" s="16">
@@ -11920,10 +11834,10 @@
       <c r="T17" s="14">
         <v>0.07000000000000001</v>
       </c>
-      <c r="U17" s="49">
+      <c r="U17" s="45">
         <v>2.5</v>
       </c>
-      <c r="V17" s="49">
+      <c r="V17" s="45">
         <v>1.5</v>
       </c>
       <c r="W17" t="s" s="16">
@@ -11991,10 +11905,10 @@
       <c r="T18" s="14">
         <v>0.04</v>
       </c>
-      <c r="U18" s="49">
+      <c r="U18" s="45">
         <v>0.6</v>
       </c>
-      <c r="V18" s="49">
+      <c r="V18" s="45">
         <v>0.6</v>
       </c>
       <c r="W18" t="s" s="16">
@@ -12133,10 +12047,10 @@
       <c r="T20" s="14">
         <v>0.1</v>
       </c>
-      <c r="U20" s="48">
+      <c r="U20" s="44">
         <v>-0.3</v>
       </c>
-      <c r="V20" s="48">
+      <c r="V20" s="44">
         <v>-0.3</v>
       </c>
       <c r="W20" t="s" s="16">
@@ -12204,10 +12118,10 @@
       <c r="T21" s="14">
         <v>0.19</v>
       </c>
-      <c r="U21" s="48">
+      <c r="U21" s="44">
         <v>-0.5</v>
       </c>
-      <c r="V21" s="48">
+      <c r="V21" s="44">
         <v>-0.5</v>
       </c>
       <c r="W21" t="s" s="16">
@@ -12336,10 +12250,10 @@
       <c r="T23" s="14">
         <v>0.13</v>
       </c>
-      <c r="U23" s="48">
+      <c r="U23" s="44">
         <v>-0.8</v>
       </c>
-      <c r="V23" s="48">
+      <c r="V23" s="44">
         <v>-0.8</v>
       </c>
       <c r="W23" t="s" s="16">
@@ -12407,10 +12321,10 @@
       <c r="T24" s="14">
         <v>0.19</v>
       </c>
-      <c r="U24" s="48">
+      <c r="U24" s="44">
         <v>-0.9</v>
       </c>
-      <c r="V24" s="48">
+      <c r="V24" s="44">
         <v>-0.9</v>
       </c>
       <c r="W24" t="s" s="16">
@@ -12478,10 +12392,10 @@
       <c r="T25" s="14">
         <v>0.16</v>
       </c>
-      <c r="U25" s="49">
+      <c r="U25" s="45">
         <v>1.2</v>
       </c>
-      <c r="V25" s="49">
+      <c r="V25" s="45">
         <v>1.2</v>
       </c>
       <c r="W25" t="s" s="16">
@@ -12549,10 +12463,10 @@
       <c r="T26" s="14">
         <v>0.05</v>
       </c>
-      <c r="U26" s="49">
+      <c r="U26" s="45">
         <v>1</v>
       </c>
-      <c r="V26" s="49">
+      <c r="V26" s="45">
         <v>1</v>
       </c>
       <c r="W26" t="s" s="16">
@@ -12911,8 +12825,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="29" width="16.3516" style="50" customWidth="1"/>
-    <col min="30" max="16384" width="16.3516" style="50" customWidth="1"/>
+    <col min="1" max="29" width="16.3516" style="46" customWidth="1"/>
+    <col min="30" max="16384" width="16.3516" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -15171,14 +15085,18 @@
       <c r="O27" s="14">
         <v>0</v>
       </c>
-      <c r="P27" s="17"/>
+      <c r="P27" s="47">
+        <v>0</v>
+      </c>
       <c r="Q27" s="14">
         <v>0</v>
       </c>
       <c r="R27" s="14">
         <v>0</v>
       </c>
-      <c r="S27" s="17"/>
+      <c r="S27" s="47">
+        <v>0</v>
+      </c>
       <c r="T27" s="14">
         <v>0</v>
       </c>
@@ -15345,7 +15263,9 @@
       <c r="O29" s="14">
         <v>0</v>
       </c>
-      <c r="P29" s="17"/>
+      <c r="P29" s="47">
+        <v>0</v>
+      </c>
       <c r="Q29" s="14">
         <v>0</v>
       </c>
@@ -15432,14 +15352,18 @@
       <c r="O30" s="14">
         <v>0</v>
       </c>
-      <c r="P30" s="17"/>
+      <c r="P30" s="47">
+        <v>0</v>
+      </c>
       <c r="Q30" s="14">
         <v>0</v>
       </c>
       <c r="R30" s="14">
         <v>0</v>
       </c>
-      <c r="S30" s="17"/>
+      <c r="S30" s="47">
+        <v>0</v>
+      </c>
       <c r="T30" s="14">
         <v>0</v>
       </c>
@@ -15584,8 +15508,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="22" width="16.3516" style="51" customWidth="1"/>
-    <col min="23" max="16384" width="16.3516" style="51" customWidth="1"/>
+    <col min="1" max="22" width="16.3516" style="48" customWidth="1"/>
+    <col min="23" max="16384" width="16.3516" style="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -17654,8 +17578,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="28" width="16.3516" style="52" customWidth="1"/>
-    <col min="29" max="16384" width="16.3516" style="52" customWidth="1"/>
+    <col min="1" max="28" width="16.3516" style="49" customWidth="1"/>
+    <col min="29" max="16384" width="16.3516" style="49" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">

--- a/RBNY_yearly_stats/main_stats/all_2024_stats.xlsx
+++ b/RBNY_yearly_stats/main_stats/all_2024_stats.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="375">
   <si>
     <t>Table 1</t>
   </si>
@@ -863,13 +863,7 @@
     <t>Opp Formation</t>
   </si>
   <si>
-    <t>Referee</t>
-  </si>
-  <si>
     <t>Match Report</t>
-  </si>
-  <si>
-    <t>Notes</t>
   </si>
   <si>
     <r>
@@ -1282,9 +1276,6 @@
     </r>
   </si>
   <si>
-    <t>Jon Freemon</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u val="single"/>
@@ -1360,9 +1351,6 @@
     <t>4-2-2-2</t>
   </si>
   <si>
-    <t>Chris Penso</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u val="single"/>
@@ -1397,9 +1385,6 @@
       </rPr>
       <t>2024-06-15</t>
     </r>
-  </si>
-  <si>
-    <t>Guido Gonzalez</t>
   </si>
   <si>
     <r>
@@ -1534,9 +1519,6 @@
     </r>
   </si>
   <si>
-    <t>Tim Ford</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u val="single"/>
@@ -1559,9 +1541,6 @@
     </r>
   </si>
   <si>
-    <t>Ted Unkel</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u val="single"/>
@@ -1573,9 +1552,6 @@
     </r>
   </si>
   <si>
-    <t>Drew Fischer</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u val="single"/>
@@ -1590,9 +1566,6 @@
     <t>4-1-2-1-2</t>
   </si>
   <si>
-    <t>Jair Marrufo</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u val="single"/>
@@ -1615,9 +1588,6 @@
     </r>
   </si>
   <si>
-    <t>Ramy Touchan</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u val="single"/>
@@ -1640,9 +1610,6 @@
     </r>
   </si>
   <si>
-    <t>Mark Allatin</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u val="single"/>
@@ -1687,9 +1654,6 @@
     </r>
   </si>
   <si>
-    <t>Tori Penso</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u val="single"/>
@@ -1701,9 +1665,6 @@
     </r>
   </si>
   <si>
-    <t>Filip Dujic</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u val="single"/>
@@ -1715,9 +1676,6 @@
     </r>
   </si>
   <si>
-    <t>Ismir Pekmic</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u val="single"/>
@@ -1822,9 +1780,6 @@
     </r>
   </si>
   <si>
-    <t>Allen Chapman</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u val="single"/>
@@ -1845,9 +1800,6 @@
       </rPr>
       <t>Conference Finals</t>
     </r>
-  </si>
-  <si>
-    <t>R. Mendoza</t>
   </si>
   <si>
     <t>Penalty Kicks</t>
@@ -7688,7 +7640,7 @@
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="6">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -7697,14 +7649,14 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" t="s" s="6">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" t="s" s="6">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
@@ -7714,7 +7666,7 @@
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
       <c r="U2" t="s" s="6">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="V2" s="7"/>
       <c r="W2" s="5"/>
@@ -7741,67 +7693,67 @@
         <v>13</v>
       </c>
       <c r="F3" t="s" s="10">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="G3" t="s" s="10">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="H3" t="s" s="10">
+        <v>318</v>
+      </c>
+      <c r="I3" t="s" s="10">
+        <v>319</v>
+      </c>
+      <c r="J3" t="s" s="10">
+        <v>320</v>
+      </c>
+      <c r="K3" t="s" s="10">
+        <v>333</v>
+      </c>
+      <c r="L3" t="s" s="10">
+        <v>269</v>
+      </c>
+      <c r="M3" t="s" s="10">
+        <v>231</v>
+      </c>
+      <c r="N3" t="s" s="10">
         <v>334</v>
       </c>
-      <c r="I3" t="s" s="10">
+      <c r="O3" t="s" s="10">
         <v>335</v>
       </c>
-      <c r="J3" t="s" s="10">
+      <c r="P3" t="s" s="10">
         <v>336</v>
       </c>
-      <c r="K3" t="s" s="10">
-        <v>349</v>
-      </c>
-      <c r="L3" t="s" s="10">
-        <v>285</v>
-      </c>
-      <c r="M3" t="s" s="10">
-        <v>247</v>
-      </c>
-      <c r="N3" t="s" s="10">
-        <v>350</v>
-      </c>
-      <c r="O3" t="s" s="10">
-        <v>351</v>
-      </c>
-      <c r="P3" t="s" s="10">
-        <v>352</v>
-      </c>
       <c r="Q3" t="s" s="10">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="R3" t="s" s="10">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="S3" t="s" s="10">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="T3" t="s" s="10">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="U3" t="s" s="10">
         <v>26</v>
       </c>
       <c r="V3" t="s" s="10">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="W3" t="s" s="10">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="X3" t="s" s="10">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="Y3" t="s" s="10">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="Z3" t="s" s="10">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="AA3" t="s" s="10">
         <v>28</v>
@@ -10275,12 +10227,12 @@
       <c r="G2" s="51"/>
       <c r="H2" s="51"/>
       <c r="I2" t="s" s="25">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="J2" s="51"/>
       <c r="K2" s="51"/>
       <c r="L2" t="s" s="25">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="M2" s="51"/>
       <c r="N2" s="51"/>
@@ -10288,7 +10240,7 @@
       <c r="P2" s="51"/>
       <c r="Q2" s="51"/>
       <c r="R2" t="s" s="25">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="S2" s="51"/>
       <c r="T2" s="51"/>
@@ -10320,10 +10272,10 @@
         <v>12</v>
       </c>
       <c r="G3" t="s" s="25">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="H3" t="s" s="25">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="I3" t="s" s="25">
         <v>13</v>
@@ -10332,52 +10284,52 @@
         <v>11</v>
       </c>
       <c r="K3" t="s" s="25">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="L3" t="s" s="25">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="M3" t="s" s="25">
+        <v>342</v>
+      </c>
+      <c r="N3" t="s" s="25">
+        <v>349</v>
+      </c>
+      <c r="O3" t="s" s="25">
+        <v>350</v>
+      </c>
+      <c r="P3" t="s" s="25">
+        <v>351</v>
+      </c>
+      <c r="Q3" t="s" s="25">
+        <v>352</v>
+      </c>
+      <c r="R3" t="s" s="25">
+        <v>353</v>
+      </c>
+      <c r="S3" t="s" s="25">
+        <v>354</v>
+      </c>
+      <c r="T3" t="s" s="25">
+        <v>355</v>
+      </c>
+      <c r="U3" t="s" s="25">
+        <v>356</v>
+      </c>
+      <c r="V3" t="s" s="25">
+        <v>357</v>
+      </c>
+      <c r="W3" t="s" s="25">
         <v>358</v>
       </c>
-      <c r="N3" t="s" s="25">
-        <v>365</v>
-      </c>
-      <c r="O3" t="s" s="25">
-        <v>366</v>
-      </c>
-      <c r="P3" t="s" s="25">
-        <v>367</v>
-      </c>
-      <c r="Q3" t="s" s="25">
-        <v>368</v>
-      </c>
-      <c r="R3" t="s" s="25">
-        <v>369</v>
-      </c>
-      <c r="S3" t="s" s="25">
-        <v>370</v>
-      </c>
-      <c r="T3" t="s" s="25">
-        <v>371</v>
-      </c>
-      <c r="U3" t="s" s="25">
-        <v>372</v>
-      </c>
-      <c r="V3" t="s" s="25">
-        <v>373</v>
-      </c>
-      <c r="W3" t="s" s="25">
-        <v>374</v>
-      </c>
       <c r="X3" t="s" s="25">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="Y3" t="s" s="25">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="Z3" t="s" s="25">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="AA3" t="s" s="25">
         <v>31</v>
@@ -10385,7 +10337,7 @@
     </row>
     <row r="4" ht="21.35" customHeight="1">
       <c r="A4" t="s" s="11">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s" s="12">
         <v>33</v>
@@ -10463,12 +10415,12 @@
         <v>-0.65</v>
       </c>
       <c r="AA4" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" ht="21.35" customHeight="1">
       <c r="A5" t="s" s="11">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s" s="12">
         <v>37</v>
@@ -10544,12 +10496,12 @@
         <v>-0.65</v>
       </c>
       <c r="AA5" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" ht="21.35" customHeight="1">
       <c r="A6" t="s" s="11">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="B6" t="s" s="12">
         <v>40</v>
@@ -10627,12 +10579,12 @@
         <v>0.11</v>
       </c>
       <c r="AA6" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" ht="21.35" customHeight="1">
       <c r="A7" t="s" s="11">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="B7" t="s" s="12">
         <v>33</v>
@@ -10710,12 +10662,12 @@
         <v>-0.23</v>
       </c>
       <c r="AA7" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" ht="21.35" customHeight="1">
       <c r="A8" t="s" s="11">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="B8" t="s" s="12">
         <v>44</v>
@@ -10793,12 +10745,12 @@
         <v>0.15</v>
       </c>
       <c r="AA8" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" ht="21.35" customHeight="1">
       <c r="A9" t="s" s="11">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="B9" t="s" s="12">
         <v>47</v>
@@ -10876,12 +10828,12 @@
         <v>-0.6</v>
       </c>
       <c r="AA9" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" ht="21.35" customHeight="1">
       <c r="A10" t="s" s="11">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="B10" t="s" s="12">
         <v>33</v>
@@ -10959,12 +10911,12 @@
         <v>0.78</v>
       </c>
       <c r="AA10" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" ht="21.35" customHeight="1">
       <c r="A11" t="s" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s" s="12">
         <v>33</v>
@@ -11042,12 +10994,12 @@
         <v>0.39</v>
       </c>
       <c r="AA11" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" ht="21.35" customHeight="1">
       <c r="A12" t="s" s="11">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="B12" t="s" s="12">
         <v>33</v>
@@ -11125,12 +11077,12 @@
         <v>0.37</v>
       </c>
       <c r="AA12" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" ht="30.35" customHeight="1">
       <c r="A13" t="s" s="11">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="B13" t="s" s="12">
         <v>53</v>
@@ -11208,12 +11160,12 @@
         <v>0.42</v>
       </c>
       <c r="AA13" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" ht="21.35" customHeight="1">
       <c r="A14" t="s" s="11">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="B14" t="s" s="12">
         <v>56</v>
@@ -11291,12 +11243,12 @@
         <v>-0.32</v>
       </c>
       <c r="AA14" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" ht="21.35" customHeight="1">
       <c r="A15" t="s" s="11">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="B15" t="s" s="12">
         <v>58</v>
@@ -11374,12 +11326,12 @@
         <v>-0.05</v>
       </c>
       <c r="AA15" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" ht="21.35" customHeight="1">
       <c r="A16" t="s" s="11">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="B16" t="s" s="12">
         <v>33</v>
@@ -11457,12 +11409,12 @@
         <v>-0.28</v>
       </c>
       <c r="AA16" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" ht="21.35" customHeight="1">
       <c r="A17" t="s" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s" s="12">
         <v>40</v>
@@ -11540,12 +11492,12 @@
         <v>-0.31</v>
       </c>
       <c r="AA17" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" ht="21.35" customHeight="1">
       <c r="A18" t="s" s="11">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="B18" t="s" s="12">
         <v>33</v>
@@ -11623,12 +11575,12 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="AA18" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" ht="21.35" customHeight="1">
       <c r="A19" t="s" s="11">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="B19" t="s" s="12">
         <v>64</v>
@@ -11706,12 +11658,12 @@
         <v>0.64</v>
       </c>
       <c r="AA19" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" ht="21.35" customHeight="1">
       <c r="A20" t="s" s="11">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s" s="12">
         <v>33</v>
@@ -11789,12 +11741,12 @@
         <v>-0.16</v>
       </c>
       <c r="AA20" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" ht="21.35" customHeight="1">
       <c r="A21" t="s" s="11">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="B21" t="s" s="12">
         <v>67</v>
@@ -11872,12 +11824,12 @@
         <v>0.16</v>
       </c>
       <c r="AA21" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" ht="21.35" customHeight="1">
       <c r="A22" t="s" s="11">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="B22" t="s" s="12">
         <v>33</v>
@@ -11953,12 +11905,12 @@
         <v>0.65</v>
       </c>
       <c r="AA22" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" ht="21.35" customHeight="1">
       <c r="A23" t="s" s="11">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="B23" t="s" s="12">
         <v>70</v>
@@ -12036,12 +11988,12 @@
         <v>-1.46</v>
       </c>
       <c r="AA23" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" ht="21.35" customHeight="1">
       <c r="A24" t="s" s="11">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="B24" t="s" s="12">
         <v>72</v>
@@ -12119,12 +12071,12 @@
         <v>0.17</v>
       </c>
       <c r="AA24" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" ht="21.35" customHeight="1">
       <c r="A25" t="s" s="11">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="B25" t="s" s="12">
         <v>33</v>
@@ -12200,12 +12152,12 @@
         <v>2.34</v>
       </c>
       <c r="AA25" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" ht="21.35" customHeight="1">
       <c r="A26" t="s" s="11">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="B26" t="s" s="12">
         <v>33</v>
@@ -12281,12 +12233,12 @@
         <v>0.87</v>
       </c>
       <c r="AA26" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" ht="21.35" customHeight="1">
       <c r="A27" t="s" s="11">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="B27" t="s" s="12">
         <v>76</v>
@@ -12362,12 +12314,12 @@
         <v>-0.26</v>
       </c>
       <c r="AA27" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" ht="21.35" customHeight="1">
       <c r="A28" t="s" s="11">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="B28" t="s" s="12">
         <v>33</v>
@@ -12443,12 +12395,12 @@
         <v>-1.77</v>
       </c>
       <c r="AA28" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" ht="21.35" customHeight="1">
       <c r="A29" t="s" s="11">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="B29" t="s" s="12">
         <v>33</v>
@@ -12524,12 +12476,12 @@
         <v>-1.1</v>
       </c>
       <c r="AA29" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" ht="21.35" customHeight="1">
       <c r="A30" t="s" s="11">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="B30" t="s" s="12">
         <v>80</v>
@@ -12605,12 +12557,12 @@
         <v>-0.34</v>
       </c>
       <c r="AA30" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" ht="21.35" customHeight="1">
       <c r="A31" t="s" s="11">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="B31" t="s" s="12">
         <v>33</v>
@@ -12659,7 +12611,7 @@
     </row>
     <row r="32" ht="21.35" customHeight="1">
       <c r="A32" t="s" s="11">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="B32" t="s" s="12">
         <v>33</v>
@@ -12708,7 +12660,7 @@
     </row>
     <row r="33" ht="21.35" customHeight="1">
       <c r="A33" t="s" s="11">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="B33" t="s" s="12">
         <v>33</v>
@@ -12757,7 +12709,7 @@
     </row>
     <row r="34" ht="21.35" customHeight="1">
       <c r="A34" t="s" s="11">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="B34" t="s" s="12">
         <v>33</v>
@@ -12806,7 +12758,7 @@
     </row>
     <row r="35" ht="21.35" customHeight="1">
       <c r="A35" t="s" s="11">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="B35" t="s" s="12">
         <v>33</v>
@@ -12855,7 +12807,7 @@
     </row>
     <row r="36" ht="21.35" customHeight="1">
       <c r="A36" t="s" s="11">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="B36" t="s" s="12">
         <v>87</v>
@@ -13072,7 +13024,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" t="s" s="6">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
@@ -13106,46 +13058,46 @@
         <v>21</v>
       </c>
       <c r="H3" t="s" s="10">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="I3" t="s" s="10">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="J3" t="s" s="10">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="K3" t="s" s="10">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="L3" t="s" s="10">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="M3" t="s" s="10">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="N3" t="s" s="10">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="O3" t="s" s="10">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="P3" t="s" s="10">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="Q3" t="s" s="10">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="R3" t="s" s="10">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="S3" t="s" s="10">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="T3" t="s" s="10">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="U3" t="s" s="10">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="V3" t="s" s="10">
         <v>31</v>
@@ -13153,7 +13105,7 @@
     </row>
     <row r="4" ht="21.35" customHeight="1">
       <c r="A4" t="s" s="11">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s" s="12">
         <v>33</v>
@@ -13216,12 +13168,12 @@
         <v>47.8</v>
       </c>
       <c r="V4" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" ht="21.35" customHeight="1">
       <c r="A5" t="s" s="11">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s" s="12">
         <v>37</v>
@@ -13284,12 +13236,12 @@
         <v>77.8</v>
       </c>
       <c r="V5" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" ht="21.35" customHeight="1">
       <c r="A6" t="s" s="11">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="B6" t="s" s="12">
         <v>40</v>
@@ -13352,12 +13304,12 @@
         <v>60.6</v>
       </c>
       <c r="V6" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" ht="21.35" customHeight="1">
       <c r="A7" t="s" s="11">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="B7" t="s" s="12">
         <v>33</v>
@@ -13420,12 +13372,12 @@
         <v>43.6</v>
       </c>
       <c r="V7" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" ht="21.35" customHeight="1">
       <c r="A8" t="s" s="11">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="B8" t="s" s="12">
         <v>44</v>
@@ -13488,12 +13440,12 @@
         <v>32.1</v>
       </c>
       <c r="V8" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" ht="21.35" customHeight="1">
       <c r="A9" t="s" s="11">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="B9" t="s" s="12">
         <v>47</v>
@@ -13556,12 +13508,12 @@
         <v>32.7</v>
       </c>
       <c r="V9" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" ht="21.35" customHeight="1">
       <c r="A10" t="s" s="11">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="B10" t="s" s="12">
         <v>33</v>
@@ -13624,12 +13576,12 @@
         <v>75</v>
       </c>
       <c r="V10" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" ht="21.35" customHeight="1">
       <c r="A11" t="s" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s" s="12">
         <v>33</v>
@@ -13692,12 +13644,12 @@
         <v>60.7</v>
       </c>
       <c r="V11" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" ht="21.35" customHeight="1">
       <c r="A12" t="s" s="11">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="B12" t="s" s="12">
         <v>33</v>
@@ -13760,12 +13712,12 @@
         <v>50</v>
       </c>
       <c r="V12" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" ht="30.35" customHeight="1">
       <c r="A13" t="s" s="11">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="B13" t="s" s="12">
         <v>53</v>
@@ -13828,12 +13780,12 @@
         <v>29.4</v>
       </c>
       <c r="V13" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" ht="21.35" customHeight="1">
       <c r="A14" t="s" s="11">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="B14" t="s" s="12">
         <v>56</v>
@@ -13896,12 +13848,12 @@
         <v>65.2</v>
       </c>
       <c r="V14" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" ht="21.35" customHeight="1">
       <c r="A15" t="s" s="11">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="B15" t="s" s="12">
         <v>58</v>
@@ -13964,12 +13916,12 @@
         <v>38.2</v>
       </c>
       <c r="V15" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" ht="21.35" customHeight="1">
       <c r="A16" t="s" s="11">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="B16" t="s" s="12">
         <v>33</v>
@@ -14032,12 +13984,12 @@
         <v>36.8</v>
       </c>
       <c r="V16" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" ht="21.35" customHeight="1">
       <c r="A17" t="s" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s" s="12">
         <v>40</v>
@@ -14100,12 +14052,12 @@
         <v>27.3</v>
       </c>
       <c r="V17" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" ht="21.35" customHeight="1">
       <c r="A18" t="s" s="11">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="B18" t="s" s="12">
         <v>33</v>
@@ -14168,12 +14120,12 @@
         <v>58</v>
       </c>
       <c r="V18" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" ht="21.35" customHeight="1">
       <c r="A19" t="s" s="11">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="B19" t="s" s="12">
         <v>64</v>
@@ -14236,12 +14188,12 @@
         <v>52.6</v>
       </c>
       <c r="V19" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" ht="21.35" customHeight="1">
       <c r="A20" t="s" s="11">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s" s="12">
         <v>33</v>
@@ -14304,12 +14256,12 @@
         <v>31.6</v>
       </c>
       <c r="V20" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" ht="21.35" customHeight="1">
       <c r="A21" t="s" s="11">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="B21" t="s" s="12">
         <v>67</v>
@@ -14372,12 +14324,12 @@
         <v>5.6</v>
       </c>
       <c r="V21" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" ht="21.35" customHeight="1">
       <c r="A22" t="s" s="11">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="B22" t="s" s="12">
         <v>33</v>
@@ -14440,12 +14392,12 @@
         <v>100</v>
       </c>
       <c r="V22" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" ht="21.35" customHeight="1">
       <c r="A23" t="s" s="11">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="B23" t="s" s="12">
         <v>70</v>
@@ -14508,12 +14460,12 @@
         <v>50</v>
       </c>
       <c r="V23" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" ht="21.35" customHeight="1">
       <c r="A24" t="s" s="11">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="B24" t="s" s="12">
         <v>72</v>
@@ -14576,12 +14528,12 @@
         <v>46.9</v>
       </c>
       <c r="V24" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" ht="21.35" customHeight="1">
       <c r="A25" t="s" s="11">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="B25" t="s" s="12">
         <v>33</v>
@@ -14644,12 +14596,12 @@
         <v>25</v>
       </c>
       <c r="V25" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" ht="21.35" customHeight="1">
       <c r="A26" t="s" s="11">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="B26" t="s" s="12">
         <v>33</v>
@@ -14712,12 +14664,12 @@
         <v>28.6</v>
       </c>
       <c r="V26" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" ht="21.35" customHeight="1">
       <c r="A27" t="s" s="11">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="B27" t="s" s="12">
         <v>76</v>
@@ -14778,12 +14730,12 @@
       </c>
       <c r="U27" s="17"/>
       <c r="V27" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" ht="21.35" customHeight="1">
       <c r="A28" t="s" s="11">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="B28" t="s" s="12">
         <v>33</v>
@@ -14844,12 +14796,12 @@
       </c>
       <c r="U28" s="17"/>
       <c r="V28" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" ht="21.35" customHeight="1">
       <c r="A29" t="s" s="11">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="B29" t="s" s="12">
         <v>33</v>
@@ -14912,12 +14864,12 @@
         <v>100</v>
       </c>
       <c r="V29" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" ht="21.35" customHeight="1">
       <c r="A30" t="s" s="60">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="B30" t="s" s="61">
         <v>80</v>
@@ -15066,14 +15018,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="20" width="16.3516" style="19" customWidth="1"/>
-    <col min="21" max="16384" width="16.3516" style="19" customWidth="1"/>
+    <col min="1" max="18" width="16.3516" style="19" customWidth="1"/>
+    <col min="19" max="16384" width="16.3516" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.55" customHeight="1">
@@ -15096,9 +15048,7 @@
       <c r="O1" s="21"/>
       <c r="P1" s="21"/>
       <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="22"/>
+      <c r="R1" s="22"/>
     </row>
     <row r="2" ht="19.35" customHeight="1">
       <c r="A2" t="s" s="23">
@@ -15155,43 +15105,37 @@
       <c r="R2" t="s" s="25">
         <v>104</v>
       </c>
-      <c r="S2" t="s" s="25">
-        <v>105</v>
-      </c>
-      <c r="T2" t="s" s="25">
-        <v>106</v>
-      </c>
     </row>
     <row r="3" ht="20.05" customHeight="1">
       <c r="A3" t="s" s="11">
+        <v>105</v>
+      </c>
+      <c r="B3" t="s" s="26">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s" s="16">
         <v>107</v>
       </c>
-      <c r="B3" t="s" s="26">
+      <c r="D3" t="s" s="16">
         <v>108</v>
       </c>
-      <c r="C3" t="s" s="16">
+      <c r="E3" t="s" s="18">
         <v>109</v>
       </c>
-      <c r="D3" t="s" s="16">
+      <c r="F3" t="s" s="18">
         <v>110</v>
       </c>
-      <c r="E3" t="s" s="18">
+      <c r="G3" t="s" s="27">
         <v>111</v>
       </c>
-      <c r="F3" t="s" s="18">
+      <c r="H3" s="14">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s" s="16">
         <v>112</v>
-      </c>
-      <c r="G3" t="s" s="27">
-        <v>113</v>
-      </c>
-      <c r="H3" s="14">
-        <v>0</v>
-      </c>
-      <c r="I3" s="14">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s" s="16">
-        <v>114</v>
       </c>
       <c r="K3" s="14">
         <v>1.4</v>
@@ -15206,41 +15150,39 @@
         <v>30109</v>
       </c>
       <c r="O3" t="s" s="16">
+        <v>113</v>
+      </c>
+      <c r="P3" t="s" s="18">
+        <v>114</v>
+      </c>
+      <c r="Q3" t="s" s="18">
         <v>115</v>
       </c>
-      <c r="P3" t="s" s="18">
+      <c r="R3" t="s" s="16">
         <v>116</v>
       </c>
-      <c r="Q3" t="s" s="18">
-        <v>117</v>
-      </c>
-      <c r="R3" s="17"/>
-      <c r="S3" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T3" s="17"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="11">
+        <v>117</v>
+      </c>
+      <c r="B4" t="s" s="26">
+        <v>118</v>
+      </c>
+      <c r="C4" t="s" s="16">
+        <v>107</v>
+      </c>
+      <c r="D4" t="s" s="16">
+        <v>108</v>
+      </c>
+      <c r="E4" t="s" s="18">
         <v>119</v>
       </c>
-      <c r="B4" t="s" s="26">
+      <c r="F4" t="s" s="18">
+        <v>110</v>
+      </c>
+      <c r="G4" t="s" s="28">
         <v>120</v>
-      </c>
-      <c r="C4" t="s" s="16">
-        <v>109</v>
-      </c>
-      <c r="D4" t="s" s="16">
-        <v>110</v>
-      </c>
-      <c r="E4" t="s" s="18">
-        <v>121</v>
-      </c>
-      <c r="F4" t="s" s="18">
-        <v>112</v>
-      </c>
-      <c r="G4" t="s" s="28">
-        <v>122</v>
       </c>
       <c r="H4" s="14">
         <v>2</v>
@@ -15249,7 +15191,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s" s="16">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K4" s="14">
         <v>1</v>
@@ -15264,41 +15206,39 @@
         <v>16516</v>
       </c>
       <c r="O4" t="s" s="16">
+        <v>113</v>
+      </c>
+      <c r="P4" t="s" s="18">
+        <v>114</v>
+      </c>
+      <c r="Q4" t="s" s="18">
         <v>115</v>
       </c>
-      <c r="P4" t="s" s="18">
+      <c r="R4" t="s" s="16">
         <v>116</v>
       </c>
-      <c r="Q4" t="s" s="18">
-        <v>117</v>
-      </c>
-      <c r="R4" s="17"/>
-      <c r="S4" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T4" s="17"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="11">
+        <v>122</v>
+      </c>
+      <c r="B5" t="s" s="29">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s" s="16">
+        <v>107</v>
+      </c>
+      <c r="D5" t="s" s="16">
+        <v>108</v>
+      </c>
+      <c r="E5" t="s" s="18">
+        <v>119</v>
+      </c>
+      <c r="F5" t="s" s="18">
         <v>124</v>
       </c>
-      <c r="B5" t="s" s="29">
-        <v>125</v>
-      </c>
-      <c r="C5" t="s" s="16">
-        <v>109</v>
-      </c>
-      <c r="D5" t="s" s="16">
-        <v>110</v>
-      </c>
-      <c r="E5" t="s" s="18">
-        <v>121</v>
-      </c>
-      <c r="F5" t="s" s="18">
-        <v>126</v>
-      </c>
       <c r="G5" t="s" s="28">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H5" s="14">
         <v>2</v>
@@ -15307,7 +15247,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s" s="16">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K5" s="14">
         <v>2</v>
@@ -15322,41 +15262,39 @@
         <v>19284</v>
       </c>
       <c r="O5" t="s" s="16">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P5" t="s" s="18">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q5" t="s" s="18">
-        <v>129</v>
-      </c>
-      <c r="R5" s="17"/>
-      <c r="S5" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T5" s="17"/>
+        <v>127</v>
+      </c>
+      <c r="R5" t="s" s="16">
+        <v>116</v>
+      </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s" s="29">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s" s="16">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s" s="16">
+        <v>108</v>
+      </c>
+      <c r="E6" t="s" s="18">
+        <v>119</v>
+      </c>
+      <c r="F6" t="s" s="18">
         <v>110</v>
       </c>
-      <c r="E6" t="s" s="18">
-        <v>121</v>
-      </c>
-      <c r="F6" t="s" s="18">
-        <v>112</v>
-      </c>
       <c r="G6" t="s" s="30">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H6" s="14">
         <v>0</v>
@@ -15365,7 +15303,7 @@
         <v>3</v>
       </c>
       <c r="J6" t="s" s="16">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K6" s="14">
         <v>0.3</v>
@@ -15380,41 +15318,39 @@
         <v>20314</v>
       </c>
       <c r="O6" t="s" s="16">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P6" t="s" s="18">
+        <v>114</v>
+      </c>
+      <c r="Q6" t="s" s="18">
+        <v>127</v>
+      </c>
+      <c r="R6" t="s" s="16">
         <v>116</v>
       </c>
-      <c r="Q6" t="s" s="18">
-        <v>129</v>
-      </c>
-      <c r="R6" s="17"/>
-      <c r="S6" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T6" s="17"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s" s="29">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s" s="16">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s" s="16">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s" s="18">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F7" t="s" s="18">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G7" t="s" s="28">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H7" s="14">
         <v>4</v>
@@ -15423,7 +15359,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s" s="16">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K7" s="14">
         <v>1.2</v>
@@ -15438,41 +15374,39 @@
         <v>25219</v>
       </c>
       <c r="O7" t="s" s="16">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P7" t="s" s="18">
+        <v>114</v>
+      </c>
+      <c r="Q7" t="s" s="18">
+        <v>135</v>
+      </c>
+      <c r="R7" t="s" s="16">
         <v>116</v>
       </c>
-      <c r="Q7" t="s" s="18">
-        <v>137</v>
-      </c>
-      <c r="R7" s="17"/>
-      <c r="S7" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T7" s="17"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s" s="29">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s" s="16">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s" s="16">
+        <v>108</v>
+      </c>
+      <c r="E8" t="s" s="18">
+        <v>119</v>
+      </c>
+      <c r="F8" t="s" s="18">
         <v>110</v>
       </c>
-      <c r="E8" t="s" s="18">
-        <v>121</v>
-      </c>
-      <c r="F8" t="s" s="18">
-        <v>112</v>
-      </c>
       <c r="G8" t="s" s="27">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H8" s="14">
         <v>1</v>
@@ -15481,7 +15415,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s" s="16">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K8" s="14">
         <v>1.8</v>
@@ -15496,41 +15430,39 @@
         <v>23859</v>
       </c>
       <c r="O8" t="s" s="16">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P8" t="s" s="18">
+        <v>114</v>
+      </c>
+      <c r="Q8" t="s" s="18">
+        <v>114</v>
+      </c>
+      <c r="R8" t="s" s="16">
         <v>116</v>
       </c>
-      <c r="Q8" t="s" s="18">
-        <v>116</v>
-      </c>
-      <c r="R8" s="17"/>
-      <c r="S8" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T8" s="17"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s" s="29">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s" s="16">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s" s="16">
+        <v>108</v>
+      </c>
+      <c r="E9" t="s" s="18">
+        <v>119</v>
+      </c>
+      <c r="F9" t="s" s="18">
         <v>110</v>
       </c>
-      <c r="E9" t="s" s="18">
-        <v>121</v>
-      </c>
-      <c r="F9" t="s" s="18">
-        <v>112</v>
-      </c>
       <c r="G9" t="s" s="28">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H9" s="14">
         <v>2</v>
@@ -15539,7 +15471,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s" s="16">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K9" s="14">
         <v>1.2</v>
@@ -15554,41 +15486,39 @@
         <v>25513</v>
       </c>
       <c r="O9" t="s" s="16">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P9" t="s" s="18">
+        <v>114</v>
+      </c>
+      <c r="Q9" t="s" s="18">
+        <v>140</v>
+      </c>
+      <c r="R9" t="s" s="16">
         <v>116</v>
       </c>
-      <c r="Q9" t="s" s="18">
-        <v>142</v>
-      </c>
-      <c r="R9" s="17"/>
-      <c r="S9" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T9" s="17"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="29">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s" s="16">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s" s="16">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s" s="18">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F10" t="s" s="18">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G10" t="s" s="27">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H10" s="14">
         <v>0</v>
@@ -15597,7 +15527,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s" s="16">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K10" s="14">
         <v>1.4</v>
@@ -15612,41 +15542,39 @@
         <v>17501</v>
       </c>
       <c r="O10" t="s" s="16">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P10" t="s" s="18">
+        <v>114</v>
+      </c>
+      <c r="Q10" t="s" s="18">
+        <v>126</v>
+      </c>
+      <c r="R10" t="s" s="16">
         <v>116</v>
       </c>
-      <c r="Q10" t="s" s="18">
-        <v>128</v>
-      </c>
-      <c r="R10" s="17"/>
-      <c r="S10" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T10" s="17"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="26">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s" s="16">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s" s="16">
+        <v>108</v>
+      </c>
+      <c r="E11" t="s" s="18">
+        <v>119</v>
+      </c>
+      <c r="F11" t="s" s="18">
         <v>110</v>
       </c>
-      <c r="E11" t="s" s="18">
-        <v>121</v>
-      </c>
-      <c r="F11" t="s" s="18">
-        <v>112</v>
-      </c>
       <c r="G11" t="s" s="27">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H11" s="14">
         <v>2</v>
@@ -15655,7 +15583,7 @@
         <v>2</v>
       </c>
       <c r="J11" t="s" s="16">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K11" s="14">
         <v>1</v>
@@ -15670,41 +15598,39 @@
         <v>22122</v>
       </c>
       <c r="O11" t="s" s="16">
+        <v>113</v>
+      </c>
+      <c r="P11" t="s" s="18">
+        <v>114</v>
+      </c>
+      <c r="Q11" t="s" s="18">
         <v>115</v>
       </c>
-      <c r="P11" t="s" s="18">
+      <c r="R11" t="s" s="16">
         <v>116</v>
       </c>
-      <c r="Q11" t="s" s="18">
-        <v>117</v>
-      </c>
-      <c r="R11" s="17"/>
-      <c r="S11" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T11" s="17"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s" s="29">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s" s="16">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D12" t="s" s="16">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E12" t="s" s="18">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F12" t="s" s="18">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s" s="27">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H12" s="14">
         <v>1</v>
@@ -15713,7 +15639,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s" s="16">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K12" s="14">
         <v>1.2</v>
@@ -15728,41 +15654,39 @@
         <v>17525</v>
       </c>
       <c r="O12" t="s" s="16">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P12" t="s" s="18">
+        <v>114</v>
+      </c>
+      <c r="Q12" t="s" s="18">
+        <v>127</v>
+      </c>
+      <c r="R12" t="s" s="16">
         <v>116</v>
       </c>
-      <c r="Q12" t="s" s="18">
-        <v>129</v>
-      </c>
-      <c r="R12" s="17"/>
-      <c r="S12" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T12" s="17"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B13" t="s" s="29">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s" s="16">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s" s="16">
+        <v>108</v>
+      </c>
+      <c r="E13" t="s" s="18">
+        <v>119</v>
+      </c>
+      <c r="F13" t="s" s="18">
         <v>110</v>
       </c>
-      <c r="E13" t="s" s="18">
-        <v>121</v>
-      </c>
-      <c r="F13" t="s" s="18">
-        <v>112</v>
-      </c>
       <c r="G13" t="s" s="30">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H13" s="14">
         <v>2</v>
@@ -15771,7 +15695,7 @@
         <v>6</v>
       </c>
       <c r="J13" t="s" s="16">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K13" s="14">
         <v>1.5</v>
@@ -15786,41 +15710,39 @@
         <v>21488</v>
       </c>
       <c r="O13" t="s" s="16">
+        <v>113</v>
+      </c>
+      <c r="P13" t="s" s="18">
+        <v>114</v>
+      </c>
+      <c r="Q13" t="s" s="18">
         <v>115</v>
       </c>
-      <c r="P13" t="s" s="18">
+      <c r="R13" t="s" s="16">
         <v>116</v>
       </c>
-      <c r="Q13" t="s" s="18">
-        <v>117</v>
-      </c>
-      <c r="R13" s="17"/>
-      <c r="S13" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T13" s="17"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s" s="29">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s" s="16">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s" s="16">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s" s="18">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F14" t="s" s="18">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s" s="28">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H14" s="14">
         <v>4</v>
@@ -15829,7 +15751,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s" s="16">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K14" s="14">
         <v>3.4</v>
@@ -15844,43 +15766,39 @@
         <v>17525</v>
       </c>
       <c r="O14" t="s" s="16">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P14" t="s" s="18">
+        <v>114</v>
+      </c>
+      <c r="Q14" t="s" s="18">
+        <v>126</v>
+      </c>
+      <c r="R14" t="s" s="16">
         <v>116</v>
       </c>
-      <c r="Q14" t="s" s="18">
-        <v>128</v>
-      </c>
-      <c r="R14" t="s" s="18">
-        <v>153</v>
-      </c>
-      <c r="S14" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T14" s="17"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="11">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s" s="29">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s" s="16">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s" s="16">
+        <v>108</v>
+      </c>
+      <c r="E15" t="s" s="18">
+        <v>152</v>
+      </c>
+      <c r="F15" t="s" s="18">
         <v>110</v>
       </c>
-      <c r="E15" t="s" s="18">
-        <v>155</v>
-      </c>
-      <c r="F15" t="s" s="18">
-        <v>112</v>
-      </c>
       <c r="G15" t="s" s="28">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H15" s="14">
         <v>4</v>
@@ -15889,7 +15807,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s" s="16">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K15" s="14">
         <v>2.3</v>
@@ -15904,41 +15822,39 @@
         <v>17417</v>
       </c>
       <c r="O15" t="s" s="16">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P15" t="s" s="18">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q15" t="s" s="18">
-        <v>157</v>
-      </c>
-      <c r="R15" s="17"/>
-      <c r="S15" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T15" s="17"/>
+        <v>154</v>
+      </c>
+      <c r="R15" t="s" s="16">
+        <v>116</v>
+      </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="11">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B16" t="s" s="29">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s" s="16">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s" s="16">
+        <v>108</v>
+      </c>
+      <c r="E16" t="s" s="18">
+        <v>119</v>
+      </c>
+      <c r="F16" t="s" s="18">
         <v>110</v>
       </c>
-      <c r="E16" t="s" s="18">
-        <v>121</v>
-      </c>
-      <c r="F16" t="s" s="18">
-        <v>112</v>
-      </c>
       <c r="G16" t="s" s="30">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H16" s="14">
         <v>1</v>
@@ -15947,7 +15863,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s" s="16">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K16" s="14">
         <v>1</v>
@@ -15962,41 +15878,39 @@
         <v>30731</v>
       </c>
       <c r="O16" t="s" s="16">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P16" t="s" s="18">
+        <v>114</v>
+      </c>
+      <c r="Q16" t="s" s="18">
+        <v>126</v>
+      </c>
+      <c r="R16" t="s" s="16">
         <v>116</v>
       </c>
-      <c r="Q16" t="s" s="18">
-        <v>128</v>
-      </c>
-      <c r="R16" s="17"/>
-      <c r="S16" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T16" s="17"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="11">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s" s="29">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s" s="16">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s" s="16">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E17" t="s" s="18">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F17" t="s" s="18">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G17" t="s" s="28">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H17" s="14">
         <v>3</v>
@@ -16005,7 +15919,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s" s="16">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K17" s="14">
         <v>1.4</v>
@@ -16020,43 +15934,39 @@
         <v>16516</v>
       </c>
       <c r="O17" t="s" s="16">
+        <v>113</v>
+      </c>
+      <c r="P17" t="s" s="18">
+        <v>159</v>
+      </c>
+      <c r="Q17" t="s" s="18">
         <v>115</v>
       </c>
-      <c r="P17" t="s" s="18">
-        <v>162</v>
-      </c>
-      <c r="Q17" t="s" s="18">
-        <v>117</v>
-      </c>
-      <c r="R17" t="s" s="18">
-        <v>163</v>
-      </c>
-      <c r="S17" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T17" s="17"/>
+      <c r="R17" t="s" s="16">
+        <v>116</v>
+      </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="11">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s" s="29">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C18" t="s" s="16">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s" s="16">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E18" t="s" s="18">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F18" t="s" s="18">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G18" t="s" s="28">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H18" s="14">
         <v>1</v>
@@ -16065,7 +15975,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s" s="16">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K18" s="14">
         <v>0.8</v>
@@ -16080,41 +15990,39 @@
         <v>18039</v>
       </c>
       <c r="O18" t="s" s="16">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P18" t="s" s="18">
+        <v>114</v>
+      </c>
+      <c r="Q18" t="s" s="18">
+        <v>161</v>
+      </c>
+      <c r="R18" t="s" s="16">
         <v>116</v>
       </c>
-      <c r="Q18" t="s" s="18">
-        <v>165</v>
-      </c>
-      <c r="R18" s="17"/>
-      <c r="S18" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T18" s="17"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="11">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s" s="29">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C19" t="s" s="16">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s" s="16">
+        <v>108</v>
+      </c>
+      <c r="E19" t="s" s="18">
+        <v>119</v>
+      </c>
+      <c r="F19" t="s" s="18">
         <v>110</v>
       </c>
-      <c r="E19" t="s" s="18">
-        <v>121</v>
-      </c>
-      <c r="F19" t="s" s="18">
-        <v>112</v>
-      </c>
       <c r="G19" t="s" s="30">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H19" s="14">
         <v>0</v>
@@ -16123,7 +16031,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s" s="16">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K19" s="14">
         <v>1.1</v>
@@ -16138,41 +16046,39 @@
         <v>29288</v>
       </c>
       <c r="O19" t="s" s="16">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P19" t="s" s="18">
+        <v>114</v>
+      </c>
+      <c r="Q19" t="s" s="18">
+        <v>126</v>
+      </c>
+      <c r="R19" t="s" s="16">
         <v>116</v>
       </c>
-      <c r="Q19" t="s" s="18">
-        <v>128</v>
-      </c>
-      <c r="R19" s="17"/>
-      <c r="S19" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T19" s="17"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="11">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B20" t="s" s="29">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C20" t="s" s="16">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s" s="16">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s" s="18">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F20" t="s" s="18">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G20" t="s" s="27">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H20" s="14">
         <v>0</v>
@@ -16181,7 +16087,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s" s="16">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K20" s="14">
         <v>1.9</v>
@@ -16196,43 +16102,39 @@
         <v>18039</v>
       </c>
       <c r="O20" t="s" s="16">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P20" t="s" s="18">
+        <v>114</v>
+      </c>
+      <c r="Q20" t="s" s="18">
+        <v>126</v>
+      </c>
+      <c r="R20" t="s" s="16">
         <v>116</v>
       </c>
-      <c r="Q20" t="s" s="18">
-        <v>128</v>
-      </c>
-      <c r="R20" t="s" s="18">
-        <v>168</v>
-      </c>
-      <c r="S20" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T20" s="17"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="11">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B21" t="s" s="29">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s" s="16">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D21" t="s" s="16">
+        <v>108</v>
+      </c>
+      <c r="E21" t="s" s="18">
+        <v>152</v>
+      </c>
+      <c r="F21" t="s" s="18">
         <v>110</v>
       </c>
-      <c r="E21" t="s" s="18">
-        <v>155</v>
-      </c>
-      <c r="F21" t="s" s="18">
-        <v>112</v>
-      </c>
       <c r="G21" t="s" s="27">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H21" s="14">
         <v>2</v>
@@ -16241,7 +16143,7 @@
         <v>2</v>
       </c>
       <c r="J21" t="s" s="16">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K21" s="14">
         <v>2.4</v>
@@ -16256,41 +16158,39 @@
         <v>19619</v>
       </c>
       <c r="O21" t="s" s="16">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P21" t="s" s="18">
+        <v>114</v>
+      </c>
+      <c r="Q21" t="s" s="18">
+        <v>127</v>
+      </c>
+      <c r="R21" t="s" s="16">
         <v>116</v>
       </c>
-      <c r="Q21" t="s" s="18">
-        <v>129</v>
-      </c>
-      <c r="R21" s="17"/>
-      <c r="S21" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T21" s="17"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="11">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B22" t="s" s="29">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s" s="16">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D22" t="s" s="16">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E22" t="s" s="18">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F22" t="s" s="18">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G22" t="s" s="28">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H22" s="14">
         <v>3</v>
@@ -16299,7 +16199,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s" s="16">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K22" s="14">
         <v>1.6</v>
@@ -16314,41 +16214,39 @@
         <v>25189</v>
       </c>
       <c r="O22" t="s" s="16">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P22" t="s" s="18">
+        <v>114</v>
+      </c>
+      <c r="Q22" t="s" s="18">
+        <v>127</v>
+      </c>
+      <c r="R22" t="s" s="16">
         <v>116</v>
       </c>
-      <c r="Q22" t="s" s="18">
-        <v>129</v>
-      </c>
-      <c r="R22" s="17"/>
-      <c r="S22" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T22" s="17"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="11">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B23" t="s" s="29">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s" s="16">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D23" t="s" s="16">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E23" t="s" s="18">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F23" t="s" s="18">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G23" t="s" s="27">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H23" s="14">
         <v>2</v>
@@ -16357,7 +16255,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s" s="16">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K23" s="14">
         <v>1.8</v>
@@ -16372,41 +16270,39 @@
         <v>18315</v>
       </c>
       <c r="O23" t="s" s="16">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P23" t="s" s="18">
+        <v>114</v>
+      </c>
+      <c r="Q23" t="s" s="18">
+        <v>169</v>
+      </c>
+      <c r="R23" t="s" s="16">
         <v>116</v>
       </c>
-      <c r="Q23" t="s" s="18">
-        <v>174</v>
-      </c>
-      <c r="R23" s="17"/>
-      <c r="S23" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T23" s="17"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" t="s" s="11">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B24" t="s" s="29">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s" s="16">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D24" t="s" s="16">
+        <v>108</v>
+      </c>
+      <c r="E24" t="s" s="18">
+        <v>119</v>
+      </c>
+      <c r="F24" t="s" s="18">
         <v>110</v>
       </c>
-      <c r="E24" t="s" s="18">
-        <v>121</v>
-      </c>
-      <c r="F24" t="s" s="18">
-        <v>112</v>
-      </c>
       <c r="G24" t="s" s="27">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H24" s="14">
         <v>0</v>
@@ -16415,7 +16311,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s" s="16">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K24" s="14">
         <v>3.1</v>
@@ -16430,41 +16326,39 @@
         <v>18915</v>
       </c>
       <c r="O24" t="s" s="16">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="P24" t="s" s="18">
+        <v>114</v>
+      </c>
+      <c r="Q24" t="s" s="18">
+        <v>154</v>
+      </c>
+      <c r="R24" t="s" s="16">
         <v>116</v>
       </c>
-      <c r="Q24" t="s" s="18">
-        <v>157</v>
-      </c>
-      <c r="R24" s="17"/>
-      <c r="S24" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T24" s="17"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" t="s" s="11">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B25" t="s" s="26">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C25" t="s" s="16">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D25" t="s" s="16">
+        <v>108</v>
+      </c>
+      <c r="E25" t="s" s="18">
+        <v>119</v>
+      </c>
+      <c r="F25" t="s" s="18">
         <v>110</v>
       </c>
-      <c r="E25" t="s" s="18">
-        <v>121</v>
-      </c>
-      <c r="F25" t="s" s="18">
-        <v>112</v>
-      </c>
       <c r="G25" t="s" s="27">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H25" s="14">
         <v>1</v>
@@ -16473,7 +16367,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s" s="16">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K25" s="14">
         <v>1.6</v>
@@ -16488,43 +16382,39 @@
         <v>15387</v>
       </c>
       <c r="O25" t="s" s="16">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P25" t="s" s="18">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q25" t="s" s="18">
-        <v>128</v>
-      </c>
-      <c r="R25" t="s" s="18">
-        <v>181</v>
-      </c>
-      <c r="S25" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T25" s="17"/>
+        <v>126</v>
+      </c>
+      <c r="R25" t="s" s="16">
+        <v>116</v>
+      </c>
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="11">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s" s="29">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C26" t="s" s="16">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D26" t="s" s="16">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E26" t="s" s="18">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F26" t="s" s="18">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G26" t="s" s="27">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H26" s="14">
         <v>2</v>
@@ -16533,7 +16423,7 @@
         <v>2</v>
       </c>
       <c r="J26" t="s" s="16">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K26" s="14">
         <v>1.9</v>
@@ -16548,41 +16438,39 @@
         <v>15128</v>
       </c>
       <c r="O26" t="s" s="16">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P26" t="s" s="18">
+        <v>114</v>
+      </c>
+      <c r="Q26" t="s" s="18">
+        <v>161</v>
+      </c>
+      <c r="R26" t="s" s="16">
         <v>116</v>
       </c>
-      <c r="Q26" t="s" s="18">
-        <v>165</v>
-      </c>
-      <c r="R26" s="17"/>
-      <c r="S26" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T26" s="17"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" t="s" s="11">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B27" t="s" s="29">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C27" t="s" s="16">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D27" t="s" s="16">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E27" t="s" s="18">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F27" t="s" s="18">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G27" t="s" s="28">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H27" s="14">
         <v>3</v>
@@ -16591,7 +16479,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s" s="16">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K27" s="14">
         <v>1.9</v>
@@ -16606,43 +16494,39 @@
         <v>19828</v>
       </c>
       <c r="O27" t="s" s="16">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="P27" t="s" s="18">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q27" t="s" s="18">
-        <v>142</v>
-      </c>
-      <c r="R27" t="s" s="18">
-        <v>184</v>
-      </c>
-      <c r="S27" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T27" s="17"/>
+        <v>140</v>
+      </c>
+      <c r="R27" t="s" s="16">
+        <v>116</v>
+      </c>
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" t="s" s="11">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B28" t="s" s="29">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s" s="16">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s" s="16">
+        <v>108</v>
+      </c>
+      <c r="E28" t="s" s="18">
+        <v>119</v>
+      </c>
+      <c r="F28" t="s" s="18">
         <v>110</v>
       </c>
-      <c r="E28" t="s" s="18">
-        <v>121</v>
-      </c>
-      <c r="F28" t="s" s="18">
-        <v>112</v>
-      </c>
       <c r="G28" t="s" s="27">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H28" s="14">
         <v>1</v>
@@ -16651,7 +16535,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s" s="16">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K28" s="14">
         <v>2.1</v>
@@ -16666,43 +16550,39 @@
         <v>31320</v>
       </c>
       <c r="O28" t="s" s="16">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P28" t="s" s="18">
+        <v>114</v>
+      </c>
+      <c r="Q28" t="s" s="18">
+        <v>126</v>
+      </c>
+      <c r="R28" t="s" s="16">
         <v>116</v>
       </c>
-      <c r="Q28" t="s" s="18">
-        <v>128</v>
-      </c>
-      <c r="R28" t="s" s="18">
-        <v>186</v>
-      </c>
-      <c r="S28" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T28" s="17"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" t="s" s="11">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B29" t="s" s="29">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s" s="16">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D29" t="s" s="16">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E29" t="s" s="18">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F29" t="s" s="18">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G29" t="s" s="30">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H29" s="14">
         <v>0</v>
@@ -16711,7 +16591,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s" s="16">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K29" s="14">
         <v>1.6</v>
@@ -16726,43 +16606,39 @@
         <v>19951</v>
       </c>
       <c r="O29" t="s" s="16">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P29" t="s" s="18">
+        <v>114</v>
+      </c>
+      <c r="Q29" t="s" s="18">
+        <v>180</v>
+      </c>
+      <c r="R29" t="s" s="16">
         <v>116</v>
       </c>
-      <c r="Q29" t="s" s="18">
-        <v>188</v>
-      </c>
-      <c r="R29" t="s" s="18">
-        <v>189</v>
-      </c>
-      <c r="S29" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T29" s="17"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" t="s" s="11">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B30" t="s" s="29">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C30" t="s" s="16">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s" s="16">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E30" t="s" s="18">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F30" t="s" s="18">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G30" t="s" s="27">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H30" s="14">
         <v>1</v>
@@ -16771,7 +16647,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s" s="16">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="K30" s="14">
         <v>1.4</v>
@@ -16786,43 +16662,39 @@
         <v>17708</v>
       </c>
       <c r="O30" t="s" s="16">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P30" t="s" s="18">
+        <v>114</v>
+      </c>
+      <c r="Q30" t="s" s="18">
+        <v>126</v>
+      </c>
+      <c r="R30" t="s" s="16">
         <v>116</v>
       </c>
-      <c r="Q30" t="s" s="18">
-        <v>128</v>
-      </c>
-      <c r="R30" t="s" s="18">
-        <v>192</v>
-      </c>
-      <c r="S30" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T30" s="17"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" t="s" s="11">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B31" t="s" s="26">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C31" t="s" s="16">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D31" t="s" s="16">
+        <v>108</v>
+      </c>
+      <c r="E31" t="s" s="18">
+        <v>119</v>
+      </c>
+      <c r="F31" t="s" s="18">
         <v>110</v>
       </c>
-      <c r="E31" t="s" s="18">
-        <v>121</v>
-      </c>
-      <c r="F31" t="s" s="18">
-        <v>112</v>
-      </c>
       <c r="G31" t="s" s="30">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H31" s="14">
         <v>1</v>
@@ -16831,7 +16703,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s" s="16">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K31" s="14">
         <v>1.5</v>
@@ -16846,43 +16718,39 @@
         <v>22188</v>
       </c>
       <c r="O31" t="s" s="16">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="P31" t="s" s="18">
+        <v>114</v>
+      </c>
+      <c r="Q31" t="s" s="18">
+        <v>135</v>
+      </c>
+      <c r="R31" t="s" s="16">
         <v>116</v>
       </c>
-      <c r="Q31" t="s" s="18">
-        <v>137</v>
-      </c>
-      <c r="R31" t="s" s="18">
-        <v>195</v>
-      </c>
-      <c r="S31" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T31" s="17"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" t="s" s="11">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B32" t="s" s="29">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s" s="16">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D32" t="s" s="16">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E32" t="s" s="18">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F32" t="s" s="18">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G32" t="s" s="27">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H32" s="14">
         <v>2</v>
@@ -16891,7 +16759,7 @@
         <v>2</v>
       </c>
       <c r="J32" t="s" s="16">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="K32" s="14">
         <v>3.3</v>
@@ -16906,43 +16774,39 @@
         <v>19751</v>
       </c>
       <c r="O32" t="s" s="16">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="P32" t="s" s="18">
+        <v>114</v>
+      </c>
+      <c r="Q32" t="s" s="18">
+        <v>154</v>
+      </c>
+      <c r="R32" t="s" s="16">
         <v>116</v>
       </c>
-      <c r="Q32" t="s" s="18">
-        <v>157</v>
-      </c>
-      <c r="R32" t="s" s="18">
-        <v>163</v>
-      </c>
-      <c r="S32" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T32" s="17"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" t="s" s="11">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B33" t="s" s="29">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s" s="16">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D33" t="s" s="16">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E33" t="s" s="18">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F33" t="s" s="18">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G33" t="s" s="30">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H33" s="14">
         <v>1</v>
@@ -16951,7 +16815,7 @@
         <v>5</v>
       </c>
       <c r="J33" t="s" s="16">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K33" s="14">
         <v>1.5</v>
@@ -16966,43 +16830,39 @@
         <v>25291</v>
       </c>
       <c r="O33" t="s" s="16">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="P33" t="s" s="18">
+        <v>114</v>
+      </c>
+      <c r="Q33" t="s" s="18">
+        <v>114</v>
+      </c>
+      <c r="R33" t="s" s="16">
         <v>116</v>
       </c>
-      <c r="Q33" t="s" s="18">
-        <v>116</v>
-      </c>
-      <c r="R33" t="s" s="18">
-        <v>200</v>
-      </c>
-      <c r="S33" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T33" s="17"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" t="s" s="11">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B34" t="s" s="29">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C34" t="s" s="16">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" t="s" s="16">
+        <v>108</v>
+      </c>
+      <c r="E34" t="s" s="18">
+        <v>152</v>
+      </c>
+      <c r="F34" t="s" s="18">
         <v>110</v>
       </c>
-      <c r="E34" t="s" s="18">
-        <v>155</v>
-      </c>
-      <c r="F34" t="s" s="18">
-        <v>112</v>
-      </c>
       <c r="G34" t="s" s="28">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H34" s="14">
         <v>4</v>
@@ -17011,7 +16871,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s" s="16">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K34" s="14">
         <v>2.2</v>
@@ -17026,43 +16886,39 @@
         <v>21575</v>
       </c>
       <c r="O34" t="s" s="16">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P34" t="s" s="18">
+        <v>114</v>
+      </c>
+      <c r="Q34" t="s" s="18">
+        <v>127</v>
+      </c>
+      <c r="R34" t="s" s="16">
         <v>116</v>
       </c>
-      <c r="Q34" t="s" s="18">
-        <v>129</v>
-      </c>
-      <c r="R34" t="s" s="18">
-        <v>202</v>
-      </c>
-      <c r="S34" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T34" s="17"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" t="s" s="11">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="B35" t="s" s="29">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C35" t="s" s="16">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" t="s" s="16">
+        <v>108</v>
+      </c>
+      <c r="E35" t="s" s="18">
+        <v>119</v>
+      </c>
+      <c r="F35" t="s" s="18">
         <v>110</v>
       </c>
-      <c r="E35" t="s" s="18">
-        <v>121</v>
-      </c>
-      <c r="F35" t="s" s="18">
-        <v>112</v>
-      </c>
       <c r="G35" t="s" s="30">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H35" s="14">
         <v>1</v>
@@ -17071,7 +16927,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s" s="16">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="K35" s="14">
         <v>0.5</v>
@@ -17086,43 +16942,39 @@
         <v>43428</v>
       </c>
       <c r="O35" t="s" s="16">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P35" t="s" s="18">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q35" t="s" s="18">
-        <v>128</v>
-      </c>
-      <c r="R35" t="s" s="18">
-        <v>204</v>
-      </c>
-      <c r="S35" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T35" s="17"/>
+        <v>126</v>
+      </c>
+      <c r="R35" t="s" s="16">
+        <v>116</v>
+      </c>
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" t="s" s="11">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B36" t="s" s="29">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="C36" t="s" s="16">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36" t="s" s="16">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E36" t="s" s="18">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F36" t="s" s="18">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G36" t="s" s="30">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H36" s="14">
         <v>2</v>
@@ -17131,7 +16983,7 @@
         <v>3</v>
       </c>
       <c r="J36" t="s" s="16">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K36" s="14">
         <v>2.3</v>
@@ -17146,43 +16998,39 @@
         <v>24515</v>
       </c>
       <c r="O36" t="s" s="16">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P36" t="s" s="18">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="Q36" t="s" s="18">
-        <v>129</v>
-      </c>
-      <c r="R36" t="s" s="18">
-        <v>168</v>
-      </c>
-      <c r="S36" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T36" s="17"/>
+        <v>127</v>
+      </c>
+      <c r="R36" t="s" s="16">
+        <v>116</v>
+      </c>
     </row>
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" t="s" s="11">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="B37" t="s" s="29">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="C37" t="s" s="16">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D37" t="s" s="16">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="E37" t="s" s="18">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="F37" t="s" s="18">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G37" t="s" s="28">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H37" s="14">
         <v>1</v>
@@ -17191,7 +17039,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s" s="16">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K37" s="14">
         <v>0.9</v>
@@ -17206,52 +17054,48 @@
         <v>19050</v>
       </c>
       <c r="O37" t="s" s="16">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P37" t="s" s="18">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q37" t="s" s="18">
-        <v>129</v>
-      </c>
-      <c r="R37" t="s" s="18">
-        <v>181</v>
-      </c>
-      <c r="S37" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T37" s="17"/>
+        <v>127</v>
+      </c>
+      <c r="R37" t="s" s="16">
+        <v>116</v>
+      </c>
     </row>
     <row r="38" ht="20.05" customHeight="1">
       <c r="A38" t="s" s="11">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="B38" t="s" s="29">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="C38" t="s" s="16">
+        <v>107</v>
+      </c>
+      <c r="D38" t="s" s="16">
+        <v>196</v>
+      </c>
+      <c r="E38" t="s" s="18">
         <v>109</v>
       </c>
-      <c r="D38" t="s" s="16">
-        <v>210</v>
-      </c>
-      <c r="E38" t="s" s="18">
+      <c r="F38" t="s" s="18">
+        <v>124</v>
+      </c>
+      <c r="G38" t="s" s="27">
         <v>111</v>
       </c>
-      <c r="F38" t="s" s="18">
-        <v>126</v>
-      </c>
-      <c r="G38" t="s" s="27">
-        <v>113</v>
-      </c>
       <c r="H38" t="s" s="31">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="I38" t="s" s="31">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="J38" t="s" s="16">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K38" s="14">
         <v>2</v>
@@ -17266,43 +17110,39 @@
         <v>20936</v>
       </c>
       <c r="O38" t="s" s="16">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P38" t="s" s="18">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q38" t="s" s="18">
-        <v>142</v>
-      </c>
-      <c r="R38" t="s" s="18">
-        <v>202</v>
-      </c>
-      <c r="S38" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T38" s="17"/>
+        <v>140</v>
+      </c>
+      <c r="R38" t="s" s="16">
+        <v>116</v>
+      </c>
     </row>
     <row r="39" ht="30.35" customHeight="1">
       <c r="A39" t="s" s="11">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="B39" t="s" s="29">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C39" t="s" s="16">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D39" t="s" s="16">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E39" t="s" s="18">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F39" t="s" s="18">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G39" t="s" s="28">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H39" s="14">
         <v>2</v>
@@ -17311,7 +17151,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s" s="16">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K39" s="14">
         <v>1</v>
@@ -17326,43 +17166,39 @@
         <v>24891</v>
       </c>
       <c r="O39" t="s" s="16">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P39" t="s" s="18">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q39" t="s" s="18">
-        <v>128</v>
-      </c>
-      <c r="R39" t="s" s="18">
-        <v>219</v>
-      </c>
-      <c r="S39" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T39" s="17"/>
+        <v>126</v>
+      </c>
+      <c r="R39" t="s" s="16">
+        <v>116</v>
+      </c>
     </row>
     <row r="40" ht="20.05" customHeight="1">
       <c r="A40" t="s" s="11">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="B40" t="s" s="29">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s" s="16">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D40" t="s" s="16">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="E40" t="s" s="18">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F40" t="s" s="18">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G40" t="s" s="28">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H40" s="14">
         <v>1</v>
@@ -17371,7 +17207,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s" s="16">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K40" s="14">
         <v>0.8</v>
@@ -17386,25 +17222,21 @@
         <v>25046</v>
       </c>
       <c r="O40" t="s" s="16">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P40" t="s" s="18">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q40" t="s" s="18">
-        <v>128</v>
-      </c>
-      <c r="R40" t="s" s="18">
-        <v>222</v>
-      </c>
-      <c r="S40" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="T40" s="17"/>
+        <v>126</v>
+      </c>
+      <c r="R40" t="s" s="16">
+        <v>116</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" location="" tooltip="" display="2024-02-25"/>
@@ -17412,229 +17244,229 @@
     <hyperlink ref="D3" r:id="rId3" location="" tooltip="" display="Regular Season"/>
     <hyperlink ref="J3" r:id="rId4" location="" tooltip="" display="Nashville SC"/>
     <hyperlink ref="O3" r:id="rId5" location="" tooltip="" display="Emil Forsberg"/>
-    <hyperlink ref="S3" r:id="rId6" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R3" r:id="rId6" location="" tooltip="" display="Match Report"/>
     <hyperlink ref="A4" r:id="rId7" location="" tooltip="" display="2024-03-02"/>
     <hyperlink ref="C4" r:id="rId8" location="" tooltip="" display="MLS"/>
     <hyperlink ref="D4" r:id="rId9" location="" tooltip="" display="Regular Season"/>
     <hyperlink ref="J4" r:id="rId10" location="" tooltip="" display="Houston Dynamo"/>
     <hyperlink ref="O4" r:id="rId11" location="" tooltip="" display="Emil Forsberg"/>
-    <hyperlink ref="S4" r:id="rId12" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R4" r:id="rId12" location="" tooltip="" display="Match Report"/>
     <hyperlink ref="A5" r:id="rId13" location="" tooltip="" display="2024-03-09"/>
     <hyperlink ref="C5" r:id="rId14" location="" tooltip="" display="MLS"/>
     <hyperlink ref="D5" r:id="rId15" location="" tooltip="" display="Regular Season"/>
     <hyperlink ref="J5" r:id="rId16" location="" tooltip="" display="FC Dallas"/>
     <hyperlink ref="O5" r:id="rId17" location="" tooltip="" display="Emil Forsberg"/>
-    <hyperlink ref="S5" r:id="rId18" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R5" r:id="rId18" location="" tooltip="" display="Match Report"/>
     <hyperlink ref="A6" r:id="rId19" location="" tooltip="" display="2024-03-16"/>
     <hyperlink ref="C6" r:id="rId20" location="" tooltip="" display="MLS"/>
     <hyperlink ref="D6" r:id="rId21" location="" tooltip="" display="Regular Season"/>
     <hyperlink ref="J6" r:id="rId22" location="" tooltip="" display="Columbus Crew"/>
     <hyperlink ref="O6" r:id="rId23" location="" tooltip="" display="Emil Forsberg"/>
-    <hyperlink ref="S6" r:id="rId24" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R6" r:id="rId24" location="" tooltip="" display="Match Report"/>
     <hyperlink ref="A7" r:id="rId25" location="" tooltip="" display="2024-03-23"/>
     <hyperlink ref="C7" r:id="rId26" location="" tooltip="" display="MLS"/>
     <hyperlink ref="D7" r:id="rId27" location="" tooltip="" display="Regular Season"/>
     <hyperlink ref="J7" r:id="rId28" location="" tooltip="" display="Inter Miami"/>
     <hyperlink ref="O7" r:id="rId29" location="" tooltip="" display="Sean Nealis"/>
-    <hyperlink ref="S7" r:id="rId30" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R7" r:id="rId30" location="" tooltip="" display="Match Report"/>
     <hyperlink ref="A8" r:id="rId31" location="" tooltip="" display="2024-03-30"/>
     <hyperlink ref="C8" r:id="rId32" location="" tooltip="" display="MLS"/>
     <hyperlink ref="D8" r:id="rId33" location="" tooltip="" display="Regular Season"/>
     <hyperlink ref="J8" r:id="rId34" location="" tooltip="" display="Orlando City"/>
     <hyperlink ref="O8" r:id="rId35" location="" tooltip="" display="Sean Nealis"/>
-    <hyperlink ref="S8" r:id="rId36" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R8" r:id="rId36" location="" tooltip="" display="Match Report"/>
     <hyperlink ref="A9" r:id="rId37" location="" tooltip="" display="2024-04-06"/>
     <hyperlink ref="C9" r:id="rId38" location="" tooltip="" display="MLS"/>
     <hyperlink ref="D9" r:id="rId39" location="" tooltip="" display="Regular Season"/>
     <hyperlink ref="J9" r:id="rId40" location="" tooltip="" display="FC Cincinnati"/>
     <hyperlink ref="O9" r:id="rId41" location="" tooltip="" display="Emil Forsberg"/>
-    <hyperlink ref="S9" r:id="rId42" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R9" r:id="rId42" location="" tooltip="" display="Match Report"/>
     <hyperlink ref="A10" r:id="rId43" location="" tooltip="" display="2024-04-13"/>
     <hyperlink ref="C10" r:id="rId44" location="" tooltip="" display="MLS"/>
     <hyperlink ref="D10" r:id="rId45" location="" tooltip="" display="Regular Season"/>
     <hyperlink ref="J10" r:id="rId46" location="" tooltip="" display="Chicago Fire"/>
     <hyperlink ref="O10" r:id="rId47" location="" tooltip="" display="Emil Forsberg"/>
-    <hyperlink ref="S10" r:id="rId48" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R10" r:id="rId48" location="" tooltip="" display="Match Report"/>
     <hyperlink ref="A11" r:id="rId49" location="" tooltip="" display="2024-04-20"/>
     <hyperlink ref="C11" r:id="rId50" location="" tooltip="" display="MLS"/>
     <hyperlink ref="D11" r:id="rId51" location="" tooltip="" display="Regular Season"/>
     <hyperlink ref="J11" r:id="rId52" location="" tooltip="" display="LAFC"/>
     <hyperlink ref="O11" r:id="rId53" location="" tooltip="" display="Emil Forsberg"/>
-    <hyperlink ref="S11" r:id="rId54" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R11" r:id="rId54" location="" tooltip="" display="Match Report"/>
     <hyperlink ref="A12" r:id="rId55" location="" tooltip="" display="2024-04-27"/>
     <hyperlink ref="C12" r:id="rId56" location="" tooltip="" display="MLS"/>
     <hyperlink ref="D12" r:id="rId57" location="" tooltip="" display="Regular Season"/>
     <hyperlink ref="J12" r:id="rId58" location="" tooltip="" display="Vancouver W'caps"/>
     <hyperlink ref="O12" r:id="rId59" location="" tooltip="" display="Emil Forsberg"/>
-    <hyperlink ref="S12" r:id="rId60" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R12" r:id="rId60" location="" tooltip="" display="Match Report"/>
     <hyperlink ref="A13" r:id="rId61" location="" tooltip="" display="2024-05-04"/>
     <hyperlink ref="C13" r:id="rId62" location="" tooltip="" display="MLS"/>
     <hyperlink ref="D13" r:id="rId63" location="" tooltip="" display="Regular Season"/>
     <hyperlink ref="J13" r:id="rId64" location="" tooltip="" display="Inter Miami"/>
     <hyperlink ref="O13" r:id="rId65" location="" tooltip="" display="Emil Forsberg"/>
-    <hyperlink ref="S13" r:id="rId66" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R13" r:id="rId66" location="" tooltip="" display="Match Report"/>
     <hyperlink ref="A14" r:id="rId67" location="" tooltip="" display="2024-05-11"/>
     <hyperlink ref="C14" r:id="rId68" location="" tooltip="" display="MLS"/>
     <hyperlink ref="D14" r:id="rId69" location="" tooltip="" display="Regular Season"/>
     <hyperlink ref="J14" r:id="rId70" location="" tooltip="" display="NE Revolution"/>
     <hyperlink ref="O14" r:id="rId71" location="" tooltip="" display="Emil Forsberg"/>
-    <hyperlink ref="S14" r:id="rId72" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R14" r:id="rId72" location="" tooltip="" display="Match Report"/>
     <hyperlink ref="A15" r:id="rId73" location="" tooltip="" display="2024-05-15"/>
     <hyperlink ref="C15" r:id="rId74" location="" tooltip="" display="MLS"/>
     <hyperlink ref="D15" r:id="rId75" location="" tooltip="" display="Regular Season"/>
     <hyperlink ref="J15" r:id="rId76" location="" tooltip="" display="D.C. United"/>
     <hyperlink ref="O15" r:id="rId77" location="" tooltip="" display="Emil Forsberg"/>
-    <hyperlink ref="S15" r:id="rId78" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R15" r:id="rId78" location="" tooltip="" display="Match Report"/>
     <hyperlink ref="A16" r:id="rId79" location="" tooltip="" display="2024-05-18"/>
     <hyperlink ref="C16" r:id="rId80" location="" tooltip="" display="MLS"/>
     <hyperlink ref="D16" r:id="rId81" location="" tooltip="" display="Regular Season"/>
     <hyperlink ref="J16" r:id="rId82" location="" tooltip="" display="NYCFC"/>
     <hyperlink ref="O16" r:id="rId83" location="" tooltip="" display="Sean Nealis"/>
-    <hyperlink ref="S16" r:id="rId84" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R16" r:id="rId84" location="" tooltip="" display="Match Report"/>
     <hyperlink ref="A17" r:id="rId85" location="" tooltip="" display="2024-05-29"/>
     <hyperlink ref="C17" r:id="rId86" location="" tooltip="" display="MLS"/>
     <hyperlink ref="D17" r:id="rId87" location="" tooltip="" display="Regular Season"/>
     <hyperlink ref="J17" r:id="rId88" location="" tooltip="" display="Charlotte"/>
     <hyperlink ref="O17" r:id="rId89" location="" tooltip="" display="Emil Forsberg"/>
-    <hyperlink ref="S17" r:id="rId90" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R17" r:id="rId90" location="" tooltip="" display="Match Report"/>
     <hyperlink ref="A18" r:id="rId91" location="" tooltip="" display="2024-06-01"/>
     <hyperlink ref="C18" r:id="rId92" location="" tooltip="" display="MLS"/>
     <hyperlink ref="D18" r:id="rId93" location="" tooltip="" display="Regular Season"/>
     <hyperlink ref="J18" r:id="rId94" location="" tooltip="" display="Orlando City"/>
     <hyperlink ref="O18" r:id="rId95" location="" tooltip="" display="Emil Forsberg"/>
-    <hyperlink ref="S18" r:id="rId96" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R18" r:id="rId96" location="" tooltip="" display="Match Report"/>
     <hyperlink ref="A19" r:id="rId97" location="" tooltip="" display="2024-06-08"/>
     <hyperlink ref="C19" r:id="rId98" location="" tooltip="" display="MLS"/>
     <hyperlink ref="D19" r:id="rId99" location="" tooltip="" display="Regular Season"/>
     <hyperlink ref="J19" r:id="rId100" location="" tooltip="" display="NE Revolution"/>
     <hyperlink ref="O19" r:id="rId101" location="" tooltip="" display="Sean Nealis"/>
-    <hyperlink ref="S19" r:id="rId102" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R19" r:id="rId102" location="" tooltip="" display="Match Report"/>
     <hyperlink ref="A20" r:id="rId103" location="" tooltip="" display="2024-06-15"/>
     <hyperlink ref="C20" r:id="rId104" location="" tooltip="" display="MLS"/>
     <hyperlink ref="D20" r:id="rId105" location="" tooltip="" display="Regular Season"/>
     <hyperlink ref="J20" r:id="rId106" location="" tooltip="" display="Nashville SC"/>
     <hyperlink ref="O20" r:id="rId107" location="" tooltip="" display="Sean Nealis"/>
-    <hyperlink ref="S20" r:id="rId108" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R20" r:id="rId108" location="" tooltip="" display="Match Report"/>
     <hyperlink ref="A21" r:id="rId109" location="" tooltip="" display="2024-06-19"/>
     <hyperlink ref="C21" r:id="rId110" location="" tooltip="" display="MLS"/>
     <hyperlink ref="D21" r:id="rId111" location="" tooltip="" display="Regular Season"/>
     <hyperlink ref="J21" r:id="rId112" location="" tooltip="" display="CF Montréal"/>
     <hyperlink ref="O21" r:id="rId113" location="" tooltip="" display="Sean Nealis"/>
-    <hyperlink ref="S21" r:id="rId114" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R21" r:id="rId114" location="" tooltip="" display="Match Report"/>
     <hyperlink ref="A22" r:id="rId115" location="" tooltip="" display="2024-06-22"/>
     <hyperlink ref="C22" r:id="rId116" location="" tooltip="" display="MLS"/>
     <hyperlink ref="D22" r:id="rId117" location="" tooltip="" display="Regular Season"/>
     <hyperlink ref="J22" r:id="rId118" location="" tooltip="" display="Toronto FC"/>
     <hyperlink ref="O22" r:id="rId119" location="" tooltip="" display="Sean Nealis"/>
-    <hyperlink ref="S22" r:id="rId120" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R22" r:id="rId120" location="" tooltip="" display="Match Report"/>
     <hyperlink ref="A23" r:id="rId121" location="" tooltip="" display="2024-06-29"/>
     <hyperlink ref="C23" r:id="rId122" location="" tooltip="" display="MLS"/>
     <hyperlink ref="D23" r:id="rId123" location="" tooltip="" display="Regular Season"/>
     <hyperlink ref="J23" r:id="rId124" location="" tooltip="" display="D.C. United"/>
     <hyperlink ref="O23" r:id="rId125" location="" tooltip="" display="Sean Nealis"/>
-    <hyperlink ref="S23" r:id="rId126" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R23" r:id="rId126" location="" tooltip="" display="Match Report"/>
     <hyperlink ref="A24" r:id="rId127" location="" tooltip="" display="2024-07-06"/>
     <hyperlink ref="C24" r:id="rId128" location="" tooltip="" display="MLS"/>
     <hyperlink ref="D24" r:id="rId129" location="" tooltip="" display="Regular Season"/>
     <hyperlink ref="J24" r:id="rId130" location="" tooltip="" display="Philadelphia Union"/>
     <hyperlink ref="O24" r:id="rId131" location="" tooltip="" display="Carlos Coronel"/>
-    <hyperlink ref="S24" r:id="rId132" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R24" r:id="rId132" location="" tooltip="" display="Match Report"/>
     <hyperlink ref="A25" r:id="rId133" location="" tooltip="" display="2024-07-13"/>
     <hyperlink ref="C25" r:id="rId134" location="" tooltip="" display="MLS"/>
     <hyperlink ref="D25" r:id="rId135" location="" tooltip="" display="Regular Season"/>
     <hyperlink ref="J25" r:id="rId136" location="" tooltip="" display="Colorado Rapids"/>
     <hyperlink ref="O25" r:id="rId137" location="" tooltip="" display="Sean Nealis"/>
-    <hyperlink ref="S25" r:id="rId138" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R25" r:id="rId138" location="" tooltip="" display="Match Report"/>
     <hyperlink ref="A26" r:id="rId139" location="" tooltip="" display="2024-07-17"/>
     <hyperlink ref="C26" r:id="rId140" location="" tooltip="" display="MLS"/>
     <hyperlink ref="D26" r:id="rId141" location="" tooltip="" display="Regular Season"/>
     <hyperlink ref="J26" r:id="rId142" location="" tooltip="" display="CF Montréal"/>
     <hyperlink ref="O26" r:id="rId143" location="" tooltip="" display="Sean Nealis"/>
-    <hyperlink ref="S26" r:id="rId144" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R26" r:id="rId144" location="" tooltip="" display="Match Report"/>
     <hyperlink ref="A27" r:id="rId145" location="" tooltip="" display="2024-07-20"/>
     <hyperlink ref="C27" r:id="rId146" location="" tooltip="" display="MLS"/>
     <hyperlink ref="D27" r:id="rId147" location="" tooltip="" display="Regular Season"/>
     <hyperlink ref="J27" r:id="rId148" location="" tooltip="" display="FC Cincinnati"/>
     <hyperlink ref="O27" r:id="rId149" location="" tooltip="" display="Carlos Coronel"/>
-    <hyperlink ref="S27" r:id="rId150" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R27" r:id="rId150" location="" tooltip="" display="Match Report"/>
     <hyperlink ref="A28" r:id="rId151" location="" tooltip="" display="2024-08-24"/>
     <hyperlink ref="C28" r:id="rId152" location="" tooltip="" display="MLS"/>
     <hyperlink ref="D28" r:id="rId153" location="" tooltip="" display="Regular Season"/>
     <hyperlink ref="J28" r:id="rId154" location="" tooltip="" display="Charlotte"/>
     <hyperlink ref="O28" r:id="rId155" location="" tooltip="" display="Sean Nealis"/>
-    <hyperlink ref="S28" r:id="rId156" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R28" r:id="rId156" location="" tooltip="" display="Match Report"/>
     <hyperlink ref="A29" r:id="rId157" location="" tooltip="" display="2024-08-31"/>
     <hyperlink ref="C29" r:id="rId158" location="" tooltip="" display="MLS"/>
     <hyperlink ref="D29" r:id="rId159" location="" tooltip="" display="Regular Season"/>
     <hyperlink ref="J29" r:id="rId160" location="" tooltip="" display="Philadelphia Union"/>
     <hyperlink ref="O29" r:id="rId161" location="" tooltip="" display="Sean Nealis"/>
-    <hyperlink ref="S29" r:id="rId162" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R29" r:id="rId162" location="" tooltip="" display="Match Report"/>
     <hyperlink ref="A30" r:id="rId163" location="" tooltip="" display="2024-09-07"/>
     <hyperlink ref="C30" r:id="rId164" location="" tooltip="" display="MLS"/>
     <hyperlink ref="D30" r:id="rId165" location="" tooltip="" display="Regular Season"/>
     <hyperlink ref="J30" r:id="rId166" location="" tooltip="" display="Sporting KC"/>
     <hyperlink ref="O30" r:id="rId167" location="" tooltip="" display="Sean Nealis"/>
-    <hyperlink ref="S30" r:id="rId168" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R30" r:id="rId168" location="" tooltip="" display="Match Report"/>
     <hyperlink ref="A31" r:id="rId169" location="" tooltip="" display="2024-09-14"/>
     <hyperlink ref="C31" r:id="rId170" location="" tooltip="" display="MLS"/>
     <hyperlink ref="D31" r:id="rId171" location="" tooltip="" display="Regular Season"/>
     <hyperlink ref="J31" r:id="rId172" location="" tooltip="" display="Chicago Fire"/>
     <hyperlink ref="O31" r:id="rId173" location="" tooltip="" display="Peter Stroud"/>
-    <hyperlink ref="S31" r:id="rId174" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R31" r:id="rId174" location="" tooltip="" display="Match Report"/>
     <hyperlink ref="A32" r:id="rId175" location="" tooltip="" display="2024-09-21"/>
     <hyperlink ref="C32" r:id="rId176" location="" tooltip="" display="MLS"/>
     <hyperlink ref="D32" r:id="rId177" location="" tooltip="" display="Regular Season"/>
     <hyperlink ref="J32" r:id="rId178" location="" tooltip="" display="Atlanta Utd"/>
     <hyperlink ref="O32" r:id="rId179" location="" tooltip="" display="Daniel Edelman"/>
-    <hyperlink ref="S32" r:id="rId180" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R32" r:id="rId180" location="" tooltip="" display="Match Report"/>
     <hyperlink ref="A33" r:id="rId181" location="" tooltip="" display="2024-09-28"/>
     <hyperlink ref="C33" r:id="rId182" location="" tooltip="" display="MLS"/>
     <hyperlink ref="D33" r:id="rId183" location="" tooltip="" display="Regular Season"/>
     <hyperlink ref="J33" r:id="rId184" location="" tooltip="" display="NYCFC"/>
     <hyperlink ref="O33" r:id="rId185" location="" tooltip="" display="Daniel Edelman"/>
-    <hyperlink ref="S33" r:id="rId186" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R33" r:id="rId186" location="" tooltip="" display="Match Report"/>
     <hyperlink ref="A34" r:id="rId187" location="" tooltip="" display="2024-10-02"/>
     <hyperlink ref="C34" r:id="rId188" location="" tooltip="" display="MLS"/>
     <hyperlink ref="D34" r:id="rId189" location="" tooltip="" display="Regular Season"/>
     <hyperlink ref="J34" r:id="rId190" location="" tooltip="" display="Toronto FC"/>
     <hyperlink ref="O34" r:id="rId191" location="" tooltip="" display="Emil Forsberg"/>
-    <hyperlink ref="S34" r:id="rId192" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R34" r:id="rId192" location="" tooltip="" display="Match Report"/>
     <hyperlink ref="A35" r:id="rId193" location="" tooltip="" display="2024-10-05"/>
     <hyperlink ref="C35" r:id="rId194" location="" tooltip="" display="MLS"/>
     <hyperlink ref="D35" r:id="rId195" location="" tooltip="" display="Regular Season"/>
     <hyperlink ref="J35" r:id="rId196" location="" tooltip="" display="Atlanta Utd"/>
     <hyperlink ref="O35" r:id="rId197" location="" tooltip="" display="Sean Nealis"/>
-    <hyperlink ref="S35" r:id="rId198" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R35" r:id="rId198" location="" tooltip="" display="Match Report"/>
     <hyperlink ref="A36" r:id="rId199" location="" tooltip="" display="2024-10-19"/>
     <hyperlink ref="C36" r:id="rId200" location="" tooltip="" display="MLS"/>
     <hyperlink ref="D36" r:id="rId201" location="" tooltip="" display="Regular Season"/>
     <hyperlink ref="J36" r:id="rId202" location="" tooltip="" display="Columbus Crew"/>
     <hyperlink ref="O36" r:id="rId203" location="" tooltip="" display="Emil Forsberg"/>
-    <hyperlink ref="S36" r:id="rId204" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R36" r:id="rId204" location="" tooltip="" display="Match Report"/>
     <hyperlink ref="A37" r:id="rId205" location="" tooltip="" display="2024-10-29"/>
     <hyperlink ref="C37" r:id="rId206" location="" tooltip="" display="MLS"/>
     <hyperlink ref="D37" r:id="rId207" location="" tooltip="" display="Round One"/>
     <hyperlink ref="J37" r:id="rId208" location="" tooltip="" display="Columbus Crew"/>
     <hyperlink ref="O37" r:id="rId209" location="" tooltip="" display="Emil Forsberg"/>
-    <hyperlink ref="S37" r:id="rId210" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R37" r:id="rId210" location="" tooltip="" display="Match Report"/>
     <hyperlink ref="A38" r:id="rId211" location="" tooltip="" display="2024-11-03"/>
     <hyperlink ref="C38" r:id="rId212" location="" tooltip="" display="MLS"/>
     <hyperlink ref="D38" r:id="rId213" location="" tooltip="" display="Round One"/>
     <hyperlink ref="J38" r:id="rId214" location="" tooltip="" display="Columbus Crew"/>
     <hyperlink ref="O38" r:id="rId215" location="" tooltip="" display="Emil Forsberg"/>
-    <hyperlink ref="S38" r:id="rId216" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R38" r:id="rId216" location="" tooltip="" display="Match Report"/>
     <hyperlink ref="A39" r:id="rId217" location="" tooltip="" display="2024-11-23"/>
     <hyperlink ref="C39" r:id="rId218" location="" tooltip="" display="MLS"/>
     <hyperlink ref="D39" r:id="rId219" location="" tooltip="" display="Conference Semifinals"/>
     <hyperlink ref="J39" r:id="rId220" location="" tooltip="" display="NYCFC"/>
     <hyperlink ref="O39" r:id="rId221" location="" tooltip="" display="Emil Forsberg"/>
-    <hyperlink ref="S39" r:id="rId222" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R39" r:id="rId222" location="" tooltip="" display="Match Report"/>
     <hyperlink ref="A40" r:id="rId223" location="" tooltip="" display="2024-11-30"/>
     <hyperlink ref="C40" r:id="rId224" location="" tooltip="" display="MLS"/>
     <hyperlink ref="D40" r:id="rId225" location="" tooltip="" display="Conference Finals"/>
     <hyperlink ref="J40" r:id="rId226" location="" tooltip="" display="Orlando City"/>
     <hyperlink ref="O40" r:id="rId227" location="" tooltip="" display="Emil Forsberg"/>
-    <hyperlink ref="S40" r:id="rId228" location="" tooltip="" display="Match Report"/>
+    <hyperlink ref="R40" r:id="rId228" location="" tooltip="" display="Match Report"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -17707,7 +17539,7 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" t="s" s="6">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
@@ -17748,46 +17580,46 @@
         <v>96</v>
       </c>
       <c r="J3" t="s" s="10">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="K3" t="s" s="10">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="L3" t="s" s="10">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="M3" t="s" s="10">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="N3" t="s" s="10">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O3" t="s" s="10">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P3" t="s" s="10">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q3" t="s" s="10">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="R3" t="s" s="10">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="S3" t="s" s="10">
         <v>19</v>
       </c>
       <c r="T3" t="s" s="10">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="U3" t="s" s="10">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="V3" t="s" s="10">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="W3" t="s" s="10">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="X3" t="s" s="10">
         <v>31</v>
@@ -18144,7 +17976,7 @@
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="6">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -18157,28 +17989,28 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" t="s" s="6">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" t="s" s="6">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" t="s" s="6">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" t="s" s="6">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" t="s" s="6">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
@@ -18209,76 +18041,76 @@
         <v>96</v>
       </c>
       <c r="G3" t="s" s="10">
+        <v>214</v>
+      </c>
+      <c r="H3" t="s" s="10">
+        <v>223</v>
+      </c>
+      <c r="I3" t="s" s="10">
+        <v>224</v>
+      </c>
+      <c r="J3" t="s" s="10">
+        <v>225</v>
+      </c>
+      <c r="K3" t="s" s="10">
+        <v>226</v>
+      </c>
+      <c r="L3" t="s" s="10">
+        <v>227</v>
+      </c>
+      <c r="M3" t="s" s="10">
+        <v>228</v>
+      </c>
+      <c r="N3" t="s" s="10">
+        <v>229</v>
+      </c>
+      <c r="O3" t="s" s="10">
         <v>230</v>
       </c>
-      <c r="H3" t="s" s="10">
+      <c r="P3" t="s" s="10">
+        <v>231</v>
+      </c>
+      <c r="Q3" t="s" s="10">
+        <v>232</v>
+      </c>
+      <c r="R3" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="S3" t="s" s="10">
+        <v>234</v>
+      </c>
+      <c r="T3" t="s" s="10">
+        <v>235</v>
+      </c>
+      <c r="U3" t="s" s="10">
+        <v>236</v>
+      </c>
+      <c r="V3" t="s" s="10">
+        <v>231</v>
+      </c>
+      <c r="W3" t="s" s="10">
+        <v>235</v>
+      </c>
+      <c r="X3" t="s" s="10">
+        <v>236</v>
+      </c>
+      <c r="Y3" t="s" s="10">
+        <v>237</v>
+      </c>
+      <c r="Z3" t="s" s="10">
+        <v>238</v>
+      </c>
+      <c r="AA3" t="s" s="10">
         <v>239</v>
       </c>
-      <c r="I3" t="s" s="10">
+      <c r="AB3" t="s" s="10">
         <v>240</v>
       </c>
-      <c r="J3" t="s" s="10">
+      <c r="AC3" t="s" s="10">
         <v>241</v>
       </c>
-      <c r="K3" t="s" s="10">
+      <c r="AD3" t="s" s="10">
         <v>242</v>
-      </c>
-      <c r="L3" t="s" s="10">
-        <v>243</v>
-      </c>
-      <c r="M3" t="s" s="10">
-        <v>244</v>
-      </c>
-      <c r="N3" t="s" s="10">
-        <v>245</v>
-      </c>
-      <c r="O3" t="s" s="10">
-        <v>246</v>
-      </c>
-      <c r="P3" t="s" s="10">
-        <v>247</v>
-      </c>
-      <c r="Q3" t="s" s="10">
-        <v>248</v>
-      </c>
-      <c r="R3" t="s" s="10">
-        <v>249</v>
-      </c>
-      <c r="S3" t="s" s="10">
-        <v>250</v>
-      </c>
-      <c r="T3" t="s" s="10">
-        <v>251</v>
-      </c>
-      <c r="U3" t="s" s="10">
-        <v>252</v>
-      </c>
-      <c r="V3" t="s" s="10">
-        <v>247</v>
-      </c>
-      <c r="W3" t="s" s="10">
-        <v>251</v>
-      </c>
-      <c r="X3" t="s" s="10">
-        <v>252</v>
-      </c>
-      <c r="Y3" t="s" s="10">
-        <v>253</v>
-      </c>
-      <c r="Z3" t="s" s="10">
-        <v>254</v>
-      </c>
-      <c r="AA3" t="s" s="10">
-        <v>255</v>
-      </c>
-      <c r="AB3" t="s" s="10">
-        <v>256</v>
-      </c>
-      <c r="AC3" t="s" s="10">
-        <v>257</v>
-      </c>
-      <c r="AD3" t="s" s="10">
-        <v>258</v>
       </c>
       <c r="AE3" t="s" s="10">
         <v>31</v>
@@ -18710,7 +18542,7 @@
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="6">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -18757,31 +18589,31 @@
         <v>14</v>
       </c>
       <c r="G3" t="s" s="10">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="H3" t="s" s="10">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="I3" t="s" s="10">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="J3" t="s" s="10">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="K3" t="s" s="10">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="L3" t="s" s="10">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="M3" t="s" s="10">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="N3" t="s" s="10">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="O3" t="s" s="10">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="P3" t="s" s="10">
         <v>18</v>
@@ -18796,13 +18628,13 @@
         <v>23</v>
       </c>
       <c r="T3" t="s" s="10">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="U3" t="s" s="10">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="V3" t="s" s="10">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="W3" t="s" s="10">
         <v>31</v>
@@ -20812,24 +20644,24 @@
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="6">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" t="s" s="6">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" t="s" s="6">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" t="s" s="6">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
@@ -20868,46 +20700,46 @@
         <v>13</v>
       </c>
       <c r="F3" t="s" s="10">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="G3" t="s" s="10">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="H3" t="s" s="10">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="I3" t="s" s="10">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="J3" t="s" s="10">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="K3" t="s" s="10">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="L3" t="s" s="10">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="M3" t="s" s="10">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="N3" t="s" s="10">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="O3" t="s" s="10">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="P3" t="s" s="10">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="Q3" t="s" s="10">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="R3" t="s" s="10">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="S3" t="s" s="10">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="T3" t="s" s="10">
         <v>15</v>
@@ -20916,22 +20748,22 @@
         <v>24</v>
       </c>
       <c r="V3" t="s" s="10">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="W3" t="s" s="10">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="X3" t="s" s="10">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="Y3" t="s" s="10">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="Z3" t="s" s="10">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="AA3" t="s" s="10">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="AB3" t="s" s="10">
         <v>27</v>
@@ -23493,7 +23325,7 @@
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
       <c r="G2" t="s" s="25">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="H2" s="51"/>
       <c r="I2" s="51"/>
@@ -23503,7 +23335,7 @@
       <c r="M2" s="51"/>
       <c r="N2" s="51"/>
       <c r="O2" t="s" s="25">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="P2" s="51"/>
       <c r="Q2" s="51"/>
@@ -23529,49 +23361,49 @@
         <v>13</v>
       </c>
       <c r="F3" t="s" s="25">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="G3" t="s" s="25">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="H3" t="s" s="25">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="I3" t="s" s="25">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="J3" t="s" s="25">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="K3" t="s" s="25">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="L3" t="s" s="25">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="M3" t="s" s="25">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="N3" t="s" s="25">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="O3" t="s" s="25">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="P3" t="s" s="25">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="Q3" t="s" s="25">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="R3" t="s" s="25">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="S3" t="s" s="25">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="T3" t="s" s="25">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="U3" t="s" s="25">
         <v>31</v>
@@ -23579,7 +23411,7 @@
     </row>
     <row r="4" ht="21.35" customHeight="1">
       <c r="A4" t="s" s="11">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s" s="12">
         <v>33</v>
@@ -23639,12 +23471,12 @@
         <v>18</v>
       </c>
       <c r="U4" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" ht="21.35" customHeight="1">
       <c r="A5" t="s" s="11">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s" s="12">
         <v>37</v>
@@ -23704,12 +23536,12 @@
         <v>1</v>
       </c>
       <c r="U5" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" ht="21.35" customHeight="1">
       <c r="A6" t="s" s="11">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="B6" t="s" s="12">
         <v>40</v>
@@ -23769,12 +23601,12 @@
         <v>4</v>
       </c>
       <c r="U6" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" ht="21.35" customHeight="1">
       <c r="A7" t="s" s="11">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="B7" t="s" s="12">
         <v>33</v>
@@ -23834,12 +23666,12 @@
         <v>22</v>
       </c>
       <c r="U7" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" ht="21.35" customHeight="1">
       <c r="A8" t="s" s="11">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="B8" t="s" s="12">
         <v>44</v>
@@ -23899,12 +23731,12 @@
         <v>27</v>
       </c>
       <c r="U8" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" ht="21.35" customHeight="1">
       <c r="A9" t="s" s="11">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="B9" t="s" s="12">
         <v>47</v>
@@ -23964,12 +23796,12 @@
         <v>21</v>
       </c>
       <c r="U9" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" ht="21.35" customHeight="1">
       <c r="A10" t="s" s="11">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="B10" t="s" s="12">
         <v>33</v>
@@ -24029,12 +23861,12 @@
         <v>33</v>
       </c>
       <c r="U10" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" ht="21.35" customHeight="1">
       <c r="A11" t="s" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s" s="12">
         <v>33</v>
@@ -24094,12 +23926,12 @@
         <v>4</v>
       </c>
       <c r="U11" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" ht="21.35" customHeight="1">
       <c r="A12" t="s" s="11">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="B12" t="s" s="12">
         <v>33</v>
@@ -24159,12 +23991,12 @@
         <v>18</v>
       </c>
       <c r="U12" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" ht="30.35" customHeight="1">
       <c r="A13" t="s" s="11">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="B13" t="s" s="12">
         <v>53</v>
@@ -24224,12 +24056,12 @@
         <v>19</v>
       </c>
       <c r="U13" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" ht="21.35" customHeight="1">
       <c r="A14" t="s" s="11">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="B14" t="s" s="12">
         <v>56</v>
@@ -24289,12 +24121,12 @@
         <v>1</v>
       </c>
       <c r="U14" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" ht="21.35" customHeight="1">
       <c r="A15" t="s" s="11">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="B15" t="s" s="12">
         <v>58</v>
@@ -24354,12 +24186,12 @@
         <v>16</v>
       </c>
       <c r="U15" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" ht="21.35" customHeight="1">
       <c r="A16" t="s" s="11">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="B16" t="s" s="12">
         <v>33</v>
@@ -24419,12 +24251,12 @@
         <v>20</v>
       </c>
       <c r="U16" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" ht="21.35" customHeight="1">
       <c r="A17" t="s" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s" s="12">
         <v>40</v>
@@ -24484,12 +24316,12 @@
         <v>12</v>
       </c>
       <c r="U17" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" ht="21.35" customHeight="1">
       <c r="A18" t="s" s="11">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="B18" t="s" s="12">
         <v>33</v>
@@ -24549,12 +24381,12 @@
         <v>25</v>
       </c>
       <c r="U18" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" ht="21.35" customHeight="1">
       <c r="A19" t="s" s="11">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="B19" t="s" s="12">
         <v>64</v>
@@ -24614,12 +24446,12 @@
         <v>5</v>
       </c>
       <c r="U19" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" ht="21.35" customHeight="1">
       <c r="A20" t="s" s="11">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s" s="12">
         <v>33</v>
@@ -24679,12 +24511,12 @@
         <v>7</v>
       </c>
       <c r="U20" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" ht="21.35" customHeight="1">
       <c r="A21" t="s" s="11">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="B21" t="s" s="12">
         <v>67</v>
@@ -24744,12 +24576,12 @@
         <v>12</v>
       </c>
       <c r="U21" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" ht="21.35" customHeight="1">
       <c r="A22" t="s" s="11">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="B22" t="s" s="12">
         <v>33</v>
@@ -24809,12 +24641,12 @@
         <v>0</v>
       </c>
       <c r="U22" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" ht="21.35" customHeight="1">
       <c r="A23" t="s" s="11">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="B23" t="s" s="12">
         <v>70</v>
@@ -24874,12 +24706,12 @@
         <v>9</v>
       </c>
       <c r="U23" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" ht="21.35" customHeight="1">
       <c r="A24" t="s" s="11">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="B24" t="s" s="12">
         <v>72</v>
@@ -24939,12 +24771,12 @@
         <v>1</v>
       </c>
       <c r="U24" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" ht="21.35" customHeight="1">
       <c r="A25" t="s" s="11">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="B25" t="s" s="12">
         <v>33</v>
@@ -25004,12 +24836,12 @@
         <v>3</v>
       </c>
       <c r="U25" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" ht="21.35" customHeight="1">
       <c r="A26" t="s" s="11">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="B26" t="s" s="12">
         <v>33</v>
@@ -25069,12 +24901,12 @@
         <v>5</v>
       </c>
       <c r="U26" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" ht="21.35" customHeight="1">
       <c r="A27" t="s" s="11">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="B27" t="s" s="12">
         <v>76</v>
@@ -25134,12 +24966,12 @@
         <v>0</v>
       </c>
       <c r="U27" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" ht="21.35" customHeight="1">
       <c r="A28" t="s" s="11">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="B28" t="s" s="12">
         <v>33</v>
@@ -25199,12 +25031,12 @@
         <v>0</v>
       </c>
       <c r="U28" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" ht="21.35" customHeight="1">
       <c r="A29" t="s" s="11">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="B29" t="s" s="12">
         <v>33</v>
@@ -25264,7 +25096,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -25404,11 +25236,11 @@
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="6">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" t="s" s="6">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -25416,11 +25248,11 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" t="s" s="6">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" t="s" s="6">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -25451,52 +25283,52 @@
         <v>13</v>
       </c>
       <c r="F3" t="s" s="10">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="G3" t="s" s="10">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="H3" t="s" s="10">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="I3" t="s" s="10">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="J3" t="s" s="10">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="K3" t="s" s="10">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="L3" t="s" s="10">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="M3" t="s" s="10">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="N3" t="s" s="10">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="O3" t="s" s="10">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="P3" t="s" s="10">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="Q3" t="s" s="10">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="R3" t="s" s="10">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="S3" t="s" s="10">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="T3" t="s" s="10">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="U3" t="s" s="10">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="V3" t="s" s="10">
         <v>31</v>
@@ -25504,7 +25336,7 @@
     </row>
     <row r="4" ht="21.35" customHeight="1">
       <c r="A4" t="s" s="11">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s" s="12">
         <v>33</v>
@@ -25567,12 +25399,12 @@
         <v>0</v>
       </c>
       <c r="V4" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" ht="21.35" customHeight="1">
       <c r="A5" t="s" s="11">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s" s="12">
         <v>37</v>
@@ -25635,12 +25467,12 @@
         <v>0</v>
       </c>
       <c r="V5" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" ht="21.35" customHeight="1">
       <c r="A6" t="s" s="11">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="B6" t="s" s="12">
         <v>40</v>
@@ -25703,12 +25535,12 @@
         <v>0</v>
       </c>
       <c r="V6" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" ht="21.35" customHeight="1">
       <c r="A7" t="s" s="11">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="B7" t="s" s="12">
         <v>33</v>
@@ -25771,12 +25603,12 @@
         <v>0</v>
       </c>
       <c r="V7" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" ht="21.35" customHeight="1">
       <c r="A8" t="s" s="11">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="B8" t="s" s="12">
         <v>44</v>
@@ -25839,12 +25671,12 @@
         <v>0</v>
       </c>
       <c r="V8" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" ht="21.35" customHeight="1">
       <c r="A9" t="s" s="11">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="B9" t="s" s="12">
         <v>47</v>
@@ -25907,12 +25739,12 @@
         <v>0</v>
       </c>
       <c r="V9" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" ht="21.35" customHeight="1">
       <c r="A10" t="s" s="11">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="B10" t="s" s="12">
         <v>33</v>
@@ -25975,12 +25807,12 @@
         <v>0</v>
       </c>
       <c r="V10" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" ht="21.35" customHeight="1">
       <c r="A11" t="s" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s" s="12">
         <v>33</v>
@@ -26043,12 +25875,12 @@
         <v>0</v>
       </c>
       <c r="V11" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" ht="21.35" customHeight="1">
       <c r="A12" t="s" s="11">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="B12" t="s" s="12">
         <v>33</v>
@@ -26111,12 +25943,12 @@
         <v>1</v>
       </c>
       <c r="V12" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" ht="30.35" customHeight="1">
       <c r="A13" t="s" s="11">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="B13" t="s" s="12">
         <v>53</v>
@@ -26179,12 +26011,12 @@
         <v>0</v>
       </c>
       <c r="V13" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" ht="21.35" customHeight="1">
       <c r="A14" t="s" s="11">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="B14" t="s" s="12">
         <v>56</v>
@@ -26247,12 +26079,12 @@
         <v>0</v>
       </c>
       <c r="V14" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" ht="21.35" customHeight="1">
       <c r="A15" t="s" s="11">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="B15" t="s" s="12">
         <v>58</v>
@@ -26315,12 +26147,12 @@
         <v>0</v>
       </c>
       <c r="V15" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" ht="21.35" customHeight="1">
       <c r="A16" t="s" s="11">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="B16" t="s" s="12">
         <v>33</v>
@@ -26383,12 +26215,12 @@
         <v>0</v>
       </c>
       <c r="V16" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" ht="21.35" customHeight="1">
       <c r="A17" t="s" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s" s="12">
         <v>40</v>
@@ -26451,12 +26283,12 @@
         <v>0</v>
       </c>
       <c r="V17" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" ht="21.35" customHeight="1">
       <c r="A18" t="s" s="11">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="B18" t="s" s="12">
         <v>33</v>
@@ -26519,12 +26351,12 @@
         <v>0</v>
       </c>
       <c r="V18" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" ht="21.35" customHeight="1">
       <c r="A19" t="s" s="11">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="B19" t="s" s="12">
         <v>64</v>
@@ -26587,12 +26419,12 @@
         <v>0</v>
       </c>
       <c r="V19" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" ht="21.35" customHeight="1">
       <c r="A20" t="s" s="11">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s" s="12">
         <v>33</v>
@@ -26655,12 +26487,12 @@
         <v>0</v>
       </c>
       <c r="V20" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" ht="21.35" customHeight="1">
       <c r="A21" t="s" s="11">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="B21" t="s" s="12">
         <v>67</v>
@@ -26723,12 +26555,12 @@
         <v>0</v>
       </c>
       <c r="V21" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" ht="21.35" customHeight="1">
       <c r="A22" t="s" s="11">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="B22" t="s" s="12">
         <v>33</v>
@@ -26791,12 +26623,12 @@
         <v>0</v>
       </c>
       <c r="V22" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" ht="21.35" customHeight="1">
       <c r="A23" t="s" s="11">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="B23" t="s" s="12">
         <v>70</v>
@@ -26859,12 +26691,12 @@
         <v>0</v>
       </c>
       <c r="V23" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" ht="21.35" customHeight="1">
       <c r="A24" t="s" s="11">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="B24" t="s" s="12">
         <v>72</v>
@@ -26927,12 +26759,12 @@
         <v>0</v>
       </c>
       <c r="V24" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" ht="21.35" customHeight="1">
       <c r="A25" t="s" s="11">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="B25" t="s" s="12">
         <v>33</v>
@@ -26995,12 +26827,12 @@
         <v>0</v>
       </c>
       <c r="V25" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" ht="21.35" customHeight="1">
       <c r="A26" t="s" s="11">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="B26" t="s" s="12">
         <v>33</v>
@@ -27063,12 +26895,12 @@
         <v>0</v>
       </c>
       <c r="V26" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" ht="21.35" customHeight="1">
       <c r="A27" t="s" s="11">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="B27" t="s" s="12">
         <v>76</v>
@@ -27131,12 +26963,12 @@
         <v>0</v>
       </c>
       <c r="V27" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" ht="21.35" customHeight="1">
       <c r="A28" t="s" s="11">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="B28" t="s" s="12">
         <v>33</v>
@@ -27199,12 +27031,12 @@
         <v>0</v>
       </c>
       <c r="V28" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" ht="21.35" customHeight="1">
       <c r="A29" t="s" s="11">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="B29" t="s" s="12">
         <v>33</v>
@@ -27267,12 +27099,12 @@
         <v>0</v>
       </c>
       <c r="V29" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" ht="21.35" customHeight="1">
       <c r="A30" t="s" s="11">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="B30" t="s" s="12">
         <v>80</v>
@@ -27335,7 +27167,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="s" s="16">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -27480,20 +27312,20 @@
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="6">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" t="s" s="6">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" t="s" s="6">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
@@ -27525,52 +27357,52 @@
         <v>13</v>
       </c>
       <c r="F3" t="s" s="10">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="G3" t="s" s="10">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="H3" t="s" s="10">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="I3" t="s" s="10">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="J3" t="s" s="10">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="K3" t="s" s="10">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="L3" t="s" s="10">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="M3" t="s" s="10">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="N3" t="s" s="10">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="O3" t="s" s="10">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="P3" t="s" s="10">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="Q3" t="s" s="10">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="R3" t="s" s="10">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="S3" t="s" s="10">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="T3" t="s" s="10">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="U3" t="s" s="10">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="V3" t="s" s="10">
         <v>31</v>
